--- a/projects/nhl-projections/files/data/projection_output.xlsx
+++ b/projects/nhl-projections/files/data/projection_output.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="14440" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="14440" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="3" r:id="rId1"/>
@@ -154,8 +154,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -209,11 +210,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,7 +527,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>42655</v>
       </c>
     </row>
@@ -775,8 +776,8 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1591,10 +1592,13 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:AE179"/>
+  <dimension ref="A1:AE367"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A179" sqref="A179"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B182" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AE199" sqref="AE199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1699,1071 +1703,1923 @@
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <f>'raw curr proj'!$A2</f>
+      <c r="A2" s="6">
         <v>42284</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <f>'raw curr proj'!$A3</f>
+      <c r="A3" s="6">
         <v>42285</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <f>'raw curr proj'!$A4</f>
+      <c r="A4" s="6">
         <v>42286</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <f>'raw curr proj'!$A5</f>
+      <c r="A5" s="6">
         <v>42287</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <f>'raw curr proj'!$A6</f>
+      <c r="A6" s="6">
         <v>42288</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <f>'raw curr proj'!$A7</f>
+      <c r="A7" s="6">
         <v>42289</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <f>'raw curr proj'!$A8</f>
+      <c r="A8" s="6">
         <v>42290</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <f>'raw curr proj'!$A9</f>
+      <c r="A9" s="6">
         <v>42291</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <f>'raw curr proj'!$A10</f>
+      <c r="A10" s="6">
         <v>42292</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <f>'raw curr proj'!$A11</f>
+      <c r="A11" s="6">
         <v>42293</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <f>'raw curr proj'!$A12</f>
+      <c r="A12" s="6">
         <v>42294</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <f>'raw curr proj'!$A13</f>
+      <c r="A13" s="6">
         <v>42295</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <f>'raw curr proj'!$A14</f>
+      <c r="A14" s="6">
         <v>42296</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <f>'raw curr proj'!$A15</f>
+      <c r="A15" s="6">
         <v>42297</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <f>'raw curr proj'!$A16</f>
+      <c r="A16" s="6">
         <v>42298</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <f>'raw curr proj'!$A17</f>
+      <c r="A17" s="6">
         <v>42299</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <f>'raw curr proj'!$A18</f>
+      <c r="A18" s="6">
         <v>42300</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <f>'raw curr proj'!$A19</f>
+      <c r="A19" s="6">
         <v>42301</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <f>'raw curr proj'!$A20</f>
+      <c r="A20" s="6">
         <v>42302</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <f>'raw curr proj'!$A21</f>
+      <c r="A21" s="6">
         <v>42303</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <f>'raw curr proj'!$A22</f>
+      <c r="A22" s="6">
         <v>42304</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <f>'raw curr proj'!$A23</f>
+      <c r="A23" s="6">
         <v>42305</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <f>'raw curr proj'!$A24</f>
+      <c r="A24" s="6">
         <v>42306</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <f>'raw curr proj'!$A25</f>
+      <c r="A25" s="6">
         <v>42307</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <f>'raw curr proj'!$A26</f>
+      <c r="A26" s="6">
         <v>42308</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <f>'raw curr proj'!$A27</f>
+      <c r="A27" s="6">
         <v>42309</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <f>'raw curr proj'!$A28</f>
+      <c r="A28" s="6">
         <v>42310</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
-        <f>'raw curr proj'!$A29</f>
+      <c r="A29" s="6">
         <v>42311</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
-        <f>'raw curr proj'!$A30</f>
+      <c r="A30" s="6">
         <v>42312</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
-        <f>'raw curr proj'!$A31</f>
+      <c r="A31" s="6">
         <v>42313</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
-        <f>'raw curr proj'!$A32</f>
+      <c r="A32" s="6">
         <v>42314</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
-        <f>'raw curr proj'!$A33</f>
+      <c r="A33" s="6">
         <v>42315</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
-        <f>'raw curr proj'!$A34</f>
+      <c r="A34" s="6">
         <v>42316</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
-        <f>'raw curr proj'!$A35</f>
+      <c r="A35" s="6">
         <v>42317</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
-        <f>'raw curr proj'!$A36</f>
+      <c r="A36" s="6">
         <v>42318</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
-        <f>'raw curr proj'!$A37</f>
+      <c r="A37" s="6">
         <v>42319</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
-        <f>'raw curr proj'!$A38</f>
+      <c r="A38" s="6">
         <v>42320</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
-        <f>'raw curr proj'!$A39</f>
+      <c r="A39" s="6">
         <v>42321</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
-        <f>'raw curr proj'!$A40</f>
+      <c r="A40" s="6">
         <v>42322</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
-        <f>'raw curr proj'!$A41</f>
+      <c r="A41" s="6">
         <v>42323</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
-        <f>'raw curr proj'!$A42</f>
+      <c r="A42" s="6">
         <v>42324</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
-        <f>'raw curr proj'!$A43</f>
+      <c r="A43" s="6">
         <v>42325</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
-        <f>'raw curr proj'!$A44</f>
+      <c r="A44" s="6">
         <v>42326</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
-        <f>'raw curr proj'!$A45</f>
+      <c r="A45" s="6">
         <v>42327</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
-        <f>'raw curr proj'!$A46</f>
+      <c r="A46" s="6">
         <v>42328</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
-        <f>'raw curr proj'!$A47</f>
+      <c r="A47" s="6">
         <v>42329</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
-        <f>'raw curr proj'!$A48</f>
+      <c r="A48" s="6">
         <v>42330</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
-        <f>'raw curr proj'!$A49</f>
+      <c r="A49" s="6">
         <v>42331</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
-        <f>'raw curr proj'!$A50</f>
+      <c r="A50" s="6">
         <v>42332</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
-        <f>'raw curr proj'!$A51</f>
+      <c r="A51" s="6">
         <v>42333</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
-        <f>'raw curr proj'!$A52</f>
+      <c r="A52" s="6">
         <v>42335</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
-        <f>'raw curr proj'!$A53</f>
+      <c r="A53" s="6">
         <v>42336</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
-        <f>'raw curr proj'!$A54</f>
+      <c r="A54" s="6">
         <v>42337</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
-        <f>'raw curr proj'!$A55</f>
+      <c r="A55" s="6">
         <v>42338</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
-        <f>'raw curr proj'!$A56</f>
+      <c r="A56" s="6">
         <v>42339</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="4">
-        <f>'raw curr proj'!$A57</f>
+      <c r="A57" s="6">
         <v>42340</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="4">
-        <f>'raw curr proj'!$A58</f>
+      <c r="A58" s="6">
         <v>42341</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="4">
-        <f>'raw curr proj'!$A59</f>
+      <c r="A59" s="6">
         <v>42342</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="4">
-        <f>'raw curr proj'!$A60</f>
+      <c r="A60" s="6">
         <v>42343</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="4">
-        <f>'raw curr proj'!$A61</f>
+      <c r="A61" s="6">
         <v>42344</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="4">
-        <f>'raw curr proj'!$A62</f>
+      <c r="A62" s="6">
         <v>42345</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="4">
-        <f>'raw curr proj'!$A63</f>
+      <c r="A63" s="6">
         <v>42346</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="4">
-        <f>'raw curr proj'!$A64</f>
+      <c r="A64" s="6">
         <v>42347</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="4">
-        <f>'raw curr proj'!$A65</f>
+      <c r="A65" s="6">
         <v>42348</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
-        <f>'raw curr proj'!$A66</f>
+      <c r="A66" s="6">
         <v>42349</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
-        <f>'raw curr proj'!$A67</f>
+      <c r="A67" s="6">
         <v>42350</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
-        <f>'raw curr proj'!$A68</f>
+      <c r="A68" s="6">
         <v>42351</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="4">
-        <f>'raw curr proj'!$A69</f>
+      <c r="A69" s="6">
         <v>42352</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="4">
-        <f>'raw curr proj'!$A70</f>
+      <c r="A70" s="6">
         <v>42353</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="4">
-        <f>'raw curr proj'!$A71</f>
+      <c r="A71" s="6">
         <v>42354</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="4">
-        <f>'raw curr proj'!$A72</f>
+      <c r="A72" s="6">
         <v>42355</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="4">
-        <f>'raw curr proj'!$A73</f>
+      <c r="A73" s="6">
         <v>42356</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="4">
-        <f>'raw curr proj'!$A74</f>
+      <c r="A74" s="6">
         <v>42357</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="4">
-        <f>'raw curr proj'!$A75</f>
+      <c r="A75" s="6">
         <v>42358</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="4">
-        <f>'raw curr proj'!$A76</f>
+      <c r="A76" s="6">
         <v>42359</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="4">
-        <f>'raw curr proj'!$A77</f>
+      <c r="A77" s="6">
         <v>42360</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="4">
-        <f>'raw curr proj'!$A78</f>
+      <c r="A78" s="6">
         <v>42364</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="4">
-        <f>'raw curr proj'!$A79</f>
+      <c r="A79" s="6">
         <v>42365</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="4">
-        <f>'raw curr proj'!$A80</f>
+      <c r="A80" s="6">
         <v>42366</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="4">
-        <f>'raw curr proj'!$A81</f>
+      <c r="A81" s="6">
         <v>42367</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="4">
-        <f>'raw curr proj'!$A82</f>
+      <c r="A82" s="6">
         <v>42368</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="4">
-        <f>'raw curr proj'!$A83</f>
+      <c r="A83" s="6">
         <v>42369</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="4">
-        <f>'raw curr proj'!$A84</f>
+      <c r="A84" s="6">
         <v>42370</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="4">
-        <f>'raw curr proj'!$A85</f>
+      <c r="A85" s="6">
         <v>42371</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="4">
-        <f>'raw curr proj'!$A86</f>
+      <c r="A86" s="6">
         <v>42372</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="4">
-        <f>'raw curr proj'!$A87</f>
+      <c r="A87" s="6">
         <v>42373</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="4">
-        <f>'raw curr proj'!$A88</f>
+      <c r="A88" s="6">
         <v>42374</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="4">
-        <f>'raw curr proj'!$A89</f>
+      <c r="A89" s="6">
         <v>42375</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="4">
-        <f>'raw curr proj'!$A90</f>
+      <c r="A90" s="6">
         <v>42376</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="4">
-        <f>'raw curr proj'!$A91</f>
+      <c r="A91" s="6">
         <v>42377</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="4">
-        <f>'raw curr proj'!$A92</f>
+      <c r="A92" s="6">
         <v>42378</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="4">
-        <f>'raw curr proj'!$A93</f>
+      <c r="A93" s="6">
         <v>42379</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="4">
-        <f>'raw curr proj'!$A94</f>
+      <c r="A94" s="6">
         <v>42380</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="4">
-        <f>'raw curr proj'!$A95</f>
+      <c r="A95" s="6">
         <v>42381</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="4">
-        <f>'raw curr proj'!$A96</f>
+      <c r="A96" s="6">
         <v>42382</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="4">
-        <f>'raw curr proj'!$A97</f>
+      <c r="A97" s="6">
         <v>42383</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="4">
-        <f>'raw curr proj'!$A98</f>
+      <c r="A98" s="6">
         <v>42384</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="4">
-        <f>'raw curr proj'!$A99</f>
+      <c r="A99" s="6">
         <v>42385</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="4">
-        <f>'raw curr proj'!$A100</f>
+      <c r="A100" s="6">
         <v>42386</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="4">
-        <f>'raw curr proj'!$A101</f>
+      <c r="A101" s="6">
         <v>42387</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="4">
-        <f>'raw curr proj'!$A102</f>
+      <c r="A102" s="6">
         <v>42388</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="4">
-        <f>'raw curr proj'!$A103</f>
+      <c r="A103" s="6">
         <v>42389</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" s="4">
-        <f>'raw curr proj'!$A104</f>
+      <c r="A104" s="6">
         <v>42390</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" s="4">
-        <f>'raw curr proj'!$A105</f>
+      <c r="A105" s="6">
         <v>42391</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" s="4">
-        <f>'raw curr proj'!$A106</f>
+      <c r="A106" s="6">
         <v>42392</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" s="4">
-        <f>'raw curr proj'!$A107</f>
+      <c r="A107" s="6">
         <v>42393</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" s="4">
-        <f>'raw curr proj'!$A108</f>
+      <c r="A108" s="6">
         <v>42394</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" s="4">
-        <f>'raw curr proj'!$A109</f>
+      <c r="A109" s="6">
         <v>42395</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" s="4">
-        <f>'raw curr proj'!$A110</f>
+      <c r="A110" s="6">
         <v>42396</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" s="4">
-        <f>'raw curr proj'!$A111</f>
+      <c r="A111" s="6">
         <v>42402</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" s="4">
-        <f>'raw curr proj'!$A112</f>
+      <c r="A112" s="6">
         <v>42403</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" s="4">
-        <f>'raw curr proj'!$A113</f>
+      <c r="A113" s="6">
         <v>42404</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" s="4">
-        <f>'raw curr proj'!$A114</f>
+      <c r="A114" s="6">
         <v>42405</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" s="4">
-        <f>'raw curr proj'!$A115</f>
+      <c r="A115" s="6">
         <v>42406</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" s="4">
-        <f>'raw curr proj'!$A116</f>
+      <c r="A116" s="6">
         <v>42407</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" s="4">
-        <f>'raw curr proj'!$A117</f>
+      <c r="A117" s="6">
         <v>42408</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" s="4">
-        <f>'raw curr proj'!$A118</f>
+      <c r="A118" s="6">
         <v>42409</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" s="4">
-        <f>'raw curr proj'!$A119</f>
+      <c r="A119" s="6">
         <v>42410</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" s="4">
-        <f>'raw curr proj'!$A120</f>
+      <c r="A120" s="6">
         <v>42411</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" s="4">
-        <f>'raw curr proj'!$A121</f>
+      <c r="A121" s="6">
         <v>42412</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122" s="4">
-        <f>'raw curr proj'!$A122</f>
+      <c r="A122" s="6">
         <v>42413</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123" s="4">
-        <f>'raw curr proj'!$A123</f>
+      <c r="A123" s="6">
         <v>42414</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124" s="4">
-        <f>'raw curr proj'!$A124</f>
+      <c r="A124" s="6">
         <v>42415</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" s="4">
-        <f>'raw curr proj'!$A125</f>
+      <c r="A125" s="6">
         <v>42416</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126" s="4">
-        <f>'raw curr proj'!$A126</f>
+      <c r="A126" s="6">
         <v>42417</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127" s="4">
-        <f>'raw curr proj'!$A127</f>
+      <c r="A127" s="6">
         <v>42418</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128" s="4">
-        <f>'raw curr proj'!$A128</f>
+      <c r="A128" s="6">
         <v>42419</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" s="4">
-        <f>'raw curr proj'!$A129</f>
+      <c r="A129" s="6">
         <v>42420</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" s="4">
-        <f>'raw curr proj'!$A130</f>
+      <c r="A130" s="6">
         <v>42421</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" s="4">
-        <f>'raw curr proj'!$A131</f>
+      <c r="A131" s="6">
         <v>42422</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" s="4">
-        <f>'raw curr proj'!$A132</f>
+      <c r="A132" s="6">
         <v>42423</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" s="4">
-        <f>'raw curr proj'!$A133</f>
+      <c r="A133" s="6">
         <v>42424</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" s="4">
-        <f>'raw curr proj'!$A134</f>
+      <c r="A134" s="6">
         <v>42425</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" s="4">
-        <f>'raw curr proj'!$A135</f>
+      <c r="A135" s="6">
         <v>42426</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" s="4">
-        <f>'raw curr proj'!$A136</f>
+      <c r="A136" s="6">
         <v>42427</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" s="4">
-        <f>'raw curr proj'!$A137</f>
+      <c r="A137" s="6">
         <v>42428</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138" s="4">
-        <f>'raw curr proj'!$A138</f>
+      <c r="A138" s="6">
         <v>42429</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139" s="4">
-        <f>'raw curr proj'!$A139</f>
+      <c r="A139" s="6">
         <v>42430</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" s="4">
-        <f>'raw curr proj'!$A140</f>
+      <c r="A140" s="6">
         <v>42431</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141" s="4">
-        <f>'raw curr proj'!$A141</f>
+      <c r="A141" s="6">
         <v>42432</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142" s="4">
-        <f>'raw curr proj'!$A142</f>
+      <c r="A142" s="6">
         <v>42433</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" s="4">
-        <f>'raw curr proj'!$A143</f>
+      <c r="A143" s="6">
         <v>42434</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" s="4">
-        <f>'raw curr proj'!$A144</f>
+      <c r="A144" s="6">
         <v>42435</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" s="4">
-        <f>'raw curr proj'!$A145</f>
+      <c r="A145" s="6">
         <v>42436</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" s="4">
-        <f>'raw curr proj'!$A146</f>
+      <c r="A146" s="6">
         <v>42437</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" s="4">
-        <f>'raw curr proj'!$A147</f>
+      <c r="A147" s="6">
         <v>42438</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148" s="4">
-        <f>'raw curr proj'!$A148</f>
+      <c r="A148" s="6">
         <v>42439</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" s="4">
-        <f>'raw curr proj'!$A149</f>
+      <c r="A149" s="6">
         <v>42440</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150" s="4">
-        <f>'raw curr proj'!$A150</f>
+      <c r="A150" s="6">
         <v>42441</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151" s="4">
-        <f>'raw curr proj'!$A151</f>
+      <c r="A151" s="6">
         <v>42442</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152" s="4">
-        <f>'raw curr proj'!$A152</f>
+      <c r="A152" s="6">
         <v>42443</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153" s="4">
-        <f>'raw curr proj'!$A153</f>
+      <c r="A153" s="6">
         <v>42444</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154" s="4">
-        <f>'raw curr proj'!$A154</f>
+      <c r="A154" s="6">
         <v>42445</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155" s="4">
-        <f>'raw curr proj'!$A155</f>
+      <c r="A155" s="6">
         <v>42446</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156" s="4">
-        <f>'raw curr proj'!$A156</f>
+      <c r="A156" s="6">
         <v>42447</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157" s="4">
-        <f>'raw curr proj'!$A157</f>
+      <c r="A157" s="6">
         <v>42448</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158" s="4">
-        <f>'raw curr proj'!$A158</f>
+      <c r="A158" s="6">
         <v>42449</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159" s="4">
-        <f>'raw curr proj'!$A159</f>
+      <c r="A159" s="6">
         <v>42450</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160" s="4">
-        <f>'raw curr proj'!$A160</f>
+      <c r="A160" s="6">
         <v>42451</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" s="4">
-        <f>'raw curr proj'!$A161</f>
+      <c r="A161" s="6">
         <v>42452</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" s="4">
-        <f>'raw curr proj'!$A162</f>
+      <c r="A162" s="6">
         <v>42453</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" s="4">
-        <f>'raw curr proj'!$A163</f>
+      <c r="A163" s="6">
         <v>42454</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" s="4">
-        <f>'raw curr proj'!$A164</f>
+      <c r="A164" s="6">
         <v>42455</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" s="4">
-        <f>'raw curr proj'!$A165</f>
+      <c r="A165" s="6">
         <v>42456</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" s="4">
-        <f>'raw curr proj'!$A166</f>
+      <c r="A166" s="6">
         <v>42457</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" s="4">
-        <f>'raw curr proj'!$A167</f>
+      <c r="A167" s="6">
         <v>42458</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168" s="4">
-        <f>'raw curr proj'!$A168</f>
+      <c r="A168" s="6">
         <v>42459</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169" s="4">
-        <f>'raw curr proj'!$A169</f>
+      <c r="A169" s="6">
         <v>42460</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A170" s="4">
-        <f>'raw curr proj'!$A170</f>
+      <c r="A170" s="6">
         <v>42461</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A171" s="4">
-        <f>'raw curr proj'!$A171</f>
+      <c r="A171" s="6">
         <v>42462</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172" s="4">
-        <f>'raw curr proj'!$A172</f>
+      <c r="A172" s="6">
         <v>42463</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173" s="4">
-        <f>'raw curr proj'!$A173</f>
+      <c r="A173" s="6">
         <v>42464</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174" s="4">
-        <f>'raw curr proj'!$A174</f>
+      <c r="A174" s="6">
         <v>42465</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175" s="4">
-        <f>'raw curr proj'!$A175</f>
+      <c r="A175" s="6">
         <v>42466</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176" s="4">
-        <f>'raw curr proj'!$A176</f>
+      <c r="A176" s="6">
         <v>42467</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177" s="4">
-        <f>'raw curr proj'!$A177</f>
+      <c r="A177" s="6">
         <v>42468</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178" s="4">
-        <f>'raw curr proj'!$A178</f>
+      <c r="A178" s="6">
         <v>42469</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179" s="4">
-        <f>'raw curr proj'!$A179</f>
+      <c r="A179" s="6">
         <v>42470</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" s="6">
+        <v>42638</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" s="6">
+        <v>42639</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" s="6">
+        <v>42640</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" s="6">
+        <v>42641</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" s="6">
+        <v>42642</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" s="6">
+        <v>42643</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" s="6">
+        <v>42644</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" s="6">
+        <v>42645</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" s="6">
+        <v>42646</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" s="6">
+        <v>42647</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" s="6">
+        <v>42648</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" s="6">
+        <v>42649</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" s="6">
+        <v>42650</v>
+      </c>
+    </row>
+    <row r="193" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A193" s="6">
+        <v>42651</v>
+      </c>
+    </row>
+    <row r="194" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A194" s="6">
+        <v>42652</v>
+      </c>
+    </row>
+    <row r="195" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A195" s="6">
+        <v>42655</v>
+      </c>
+    </row>
+    <row r="196" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A196" s="6">
+        <v>42656</v>
+      </c>
+    </row>
+    <row r="197" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A197" s="6">
+        <v>42657</v>
+      </c>
+    </row>
+    <row r="198" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A198" s="6">
+        <v>42658</v>
+      </c>
+    </row>
+    <row r="199" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A199" s="6">
+        <v>42659</v>
+      </c>
+      <c r="B199" s="1">
+        <v>1</v>
+      </c>
+      <c r="C199" s="1">
+        <v>2</v>
+      </c>
+      <c r="D199" s="1">
+        <v>2</v>
+      </c>
+      <c r="E199" s="1">
+        <v>2</v>
+      </c>
+      <c r="F199" s="1">
+        <v>1</v>
+      </c>
+      <c r="G199" s="1">
+        <v>2</v>
+      </c>
+      <c r="H199" s="1">
+        <v>2</v>
+      </c>
+      <c r="I199" s="1">
+        <v>2</v>
+      </c>
+      <c r="J199" s="1">
+        <v>0</v>
+      </c>
+      <c r="K199" s="1">
+        <v>2</v>
+      </c>
+      <c r="L199" s="1">
+        <v>0</v>
+      </c>
+      <c r="M199" s="1">
+        <v>4</v>
+      </c>
+      <c r="N199" s="1">
+        <v>4</v>
+      </c>
+      <c r="O199" s="1">
+        <v>0</v>
+      </c>
+      <c r="P199" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q199" s="1">
+        <v>3</v>
+      </c>
+      <c r="R199" s="1">
+        <v>2</v>
+      </c>
+      <c r="S199" s="1">
+        <v>1</v>
+      </c>
+      <c r="T199" s="1">
+        <v>2</v>
+      </c>
+      <c r="U199" s="1">
+        <v>2</v>
+      </c>
+      <c r="V199" s="1">
+        <v>4</v>
+      </c>
+      <c r="W199" s="1">
+        <v>3</v>
+      </c>
+      <c r="X199" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y199" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z199" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA199" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB199" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC199" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD199" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE199" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A200" s="6">
+        <v>42660</v>
+      </c>
+    </row>
+    <row r="201" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A201" s="6">
+        <v>42661</v>
+      </c>
+    </row>
+    <row r="202" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A202" s="6">
+        <v>42662</v>
+      </c>
+    </row>
+    <row r="203" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A203" s="6">
+        <v>42663</v>
+      </c>
+    </row>
+    <row r="204" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A204" s="6">
+        <v>42664</v>
+      </c>
+    </row>
+    <row r="205" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A205" s="6">
+        <v>42665</v>
+      </c>
+    </row>
+    <row r="206" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A206" s="6">
+        <v>42666</v>
+      </c>
+    </row>
+    <row r="207" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A207" s="6">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="208" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A208" s="6">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" s="6">
+        <v>42669</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" s="6">
+        <v>42670</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" s="6">
+        <v>42671</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" s="6">
+        <v>42672</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" s="6">
+        <v>42673</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" s="6">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" s="6">
+        <v>42675</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" s="6">
+        <v>42676</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" s="6">
+        <v>42677</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" s="6">
+        <v>42678</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" s="6">
+        <v>42679</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" s="6">
+        <v>42680</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221" s="6">
+        <v>42681</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222" s="6">
+        <v>42682</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223" s="6">
+        <v>42683</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" s="6">
+        <v>42684</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" s="6">
+        <v>42685</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" s="6">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" s="6">
+        <v>42687</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" s="6">
+        <v>42688</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229" s="6">
+        <v>42689</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230" s="6">
+        <v>42690</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231" s="6">
+        <v>42691</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232" s="6">
+        <v>42692</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233" s="6">
+        <v>42693</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234" s="6">
+        <v>42694</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235" s="6">
+        <v>42695</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236" s="6">
+        <v>42696</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237" s="6">
+        <v>42697</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238" s="6">
+        <v>42698</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239" s="6">
+        <v>42699</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240" s="6">
+        <v>42700</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241" s="6">
+        <v>42701</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242" s="6">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243" s="6">
+        <v>42703</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244" s="6">
+        <v>42704</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245" s="6">
+        <v>42705</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246" s="6">
+        <v>42706</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247" s="6">
+        <v>42707</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248" s="6">
+        <v>42708</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249" s="6">
+        <v>42709</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250" s="6">
+        <v>42710</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251" s="6">
+        <v>42711</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252" s="6">
+        <v>42712</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253" s="6">
+        <v>42713</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254" s="6">
+        <v>42714</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255" s="6">
+        <v>42715</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256" s="6">
+        <v>42716</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257" s="6">
+        <v>42717</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258" s="6">
+        <v>42718</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259" s="6">
+        <v>42719</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260" s="6">
+        <v>42720</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A261" s="6">
+        <v>42721</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A262" s="6">
+        <v>42722</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A263" s="6">
+        <v>42723</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A264" s="6">
+        <v>42724</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A265" s="6">
+        <v>42725</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A266" s="6">
+        <v>42726</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A267" s="6">
+        <v>42727</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A268" s="6">
+        <v>42728</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A269" s="6">
+        <v>42732</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A270" s="6">
+        <v>42733</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A271" s="6">
+        <v>42734</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A272" s="6">
+        <v>42735</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A273" s="6">
+        <v>42736</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A274" s="6">
+        <v>42737</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A275" s="6">
+        <v>42738</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A276" s="6">
+        <v>42739</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A277" s="6">
+        <v>42740</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A278" s="6">
+        <v>42741</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A279" s="6">
+        <v>42742</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A280" s="6">
+        <v>42743</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A281" s="6">
+        <v>42744</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A282" s="6">
+        <v>42745</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A283" s="6">
+        <v>42746</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A284" s="6">
+        <v>42747</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A285" s="6">
+        <v>42748</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A286" s="6">
+        <v>42749</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A287" s="6">
+        <v>42750</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A288" s="6">
+        <v>42751</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A289" s="6">
+        <v>42752</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A290" s="6">
+        <v>42753</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A291" s="6">
+        <v>42754</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A292" s="6">
+        <v>42755</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A293" s="6">
+        <v>42756</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A294" s="6">
+        <v>42757</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A295" s="6">
+        <v>42758</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A296" s="6">
+        <v>42759</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A297" s="6">
+        <v>42760</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A298" s="6">
+        <v>42761</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A299" s="6">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A300" s="6">
+        <v>42767</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A301" s="6">
+        <v>42768</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A302" s="6">
+        <v>42769</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A303" s="6">
+        <v>42770</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A304" s="6">
+        <v>42771</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A305" s="6">
+        <v>42773</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A306" s="6">
+        <v>42774</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A307" s="6">
+        <v>42775</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A308" s="6">
+        <v>42776</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A309" s="6">
+        <v>42777</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A310" s="6">
+        <v>42778</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A311" s="6">
+        <v>42779</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A312" s="6">
+        <v>42780</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A313" s="6">
+        <v>42781</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A314" s="6">
+        <v>42782</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A315" s="6">
+        <v>42783</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A316" s="6">
+        <v>42784</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A317" s="6">
+        <v>42785</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A318" s="6">
+        <v>42786</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A319" s="6">
+        <v>42787</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A320" s="6">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A321" s="6">
+        <v>42789</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A322" s="6">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A323" s="6">
+        <v>42791</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A324" s="6">
+        <v>42792</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A325" s="6">
+        <v>42793</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A326" s="6">
+        <v>42794</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A327" s="6">
+        <v>42795</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A328" s="6">
+        <v>42796</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A329" s="6">
+        <v>42797</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A330" s="6">
+        <v>42798</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A331" s="6">
+        <v>42799</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A332" s="6">
+        <v>42800</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A333" s="6">
+        <v>42801</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A334" s="6">
+        <v>42802</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A335" s="6">
+        <v>42803</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A336" s="6">
+        <v>42804</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A337" s="6">
+        <v>42805</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A338" s="6">
+        <v>42806</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A339" s="6">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A340" s="6">
+        <v>42808</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A341" s="6">
+        <v>42809</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A342" s="6">
+        <v>42810</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A343" s="6">
+        <v>42811</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A344" s="6">
+        <v>42812</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A345" s="6">
+        <v>42813</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A346" s="6">
+        <v>42814</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A347" s="6">
+        <v>42815</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A348" s="6">
+        <v>42816</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A349" s="6">
+        <v>42817</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A350" s="6">
+        <v>42818</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A351" s="6">
+        <v>42819</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A352" s="6">
+        <v>42820</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A353" s="6">
+        <v>42821</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A354" s="6">
+        <v>42822</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A355" s="6">
+        <v>42823</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A356" s="6">
+        <v>42824</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A357" s="6">
+        <v>42825</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A358" s="6">
+        <v>42826</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A359" s="6">
+        <v>42827</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A360" s="6">
+        <v>42828</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A361" s="6">
+        <v>42829</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A362" s="6">
+        <v>42830</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A363" s="6">
+        <v>42831</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A364" s="6">
+        <v>42832</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A365" s="6">
+        <v>42833</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A366" s="6">
+        <v>42834</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A367" s="6">
+        <v>42835</v>
       </c>
     </row>
   </sheetData>
@@ -2779,7 +3635,7 @@
   <dimension ref="A1:AF367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AF367"/>
+      <selection activeCell="A2" sqref="A2:A367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2789,7 +3645,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2917,7 +3773,7 @@
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <f>DATE(YEAR(B2)-(3915-2015),MONTH(B2),DAY(B2))</f>
         <v>42284</v>
       </c>
@@ -3016,7 +3872,7 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <f t="shared" ref="A3:A66" si="0">DATE(YEAR(B3)-(3915-2015),MONTH(B3),DAY(B3))</f>
         <v>42285</v>
       </c>
@@ -3115,7 +3971,7 @@
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>42286</v>
       </c>
@@ -3214,7 +4070,7 @@
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>42287</v>
       </c>
@@ -3313,7 +4169,7 @@
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>42288</v>
       </c>
@@ -3412,7 +4268,7 @@
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>42289</v>
       </c>
@@ -3511,7 +4367,7 @@
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>42290</v>
       </c>
@@ -3610,7 +4466,7 @@
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>42291</v>
       </c>
@@ -3709,7 +4565,7 @@
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>42292</v>
       </c>
@@ -3808,7 +4664,7 @@
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>42293</v>
       </c>
@@ -3907,7 +4763,7 @@
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>42294</v>
       </c>
@@ -4006,7 +4862,7 @@
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>42295</v>
       </c>
@@ -4105,7 +4961,7 @@
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>42296</v>
       </c>
@@ -4204,7 +5060,7 @@
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>42297</v>
       </c>
@@ -4303,7 +5159,7 @@
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>42298</v>
       </c>
@@ -4402,7 +5258,7 @@
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>42299</v>
       </c>
@@ -4501,7 +5357,7 @@
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>42300</v>
       </c>
@@ -4600,7 +5456,7 @@
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>42301</v>
       </c>
@@ -4699,7 +5555,7 @@
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>42302</v>
       </c>
@@ -4798,7 +5654,7 @@
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>42303</v>
       </c>
@@ -4897,7 +5753,7 @@
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <f t="shared" si="0"/>
         <v>42304</v>
       </c>
@@ -4996,7 +5852,7 @@
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <f t="shared" si="0"/>
         <v>42305</v>
       </c>
@@ -5095,7 +5951,7 @@
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <f t="shared" si="0"/>
         <v>42306</v>
       </c>
@@ -5194,7 +6050,7 @@
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <f t="shared" si="0"/>
         <v>42307</v>
       </c>
@@ -5293,7 +6149,7 @@
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <f t="shared" si="0"/>
         <v>42308</v>
       </c>
@@ -5392,7 +6248,7 @@
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <f t="shared" si="0"/>
         <v>42309</v>
       </c>
@@ -5491,7 +6347,7 @@
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <f t="shared" si="0"/>
         <v>42310</v>
       </c>
@@ -5590,7 +6446,7 @@
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <f t="shared" si="0"/>
         <v>42311</v>
       </c>
@@ -5689,7 +6545,7 @@
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <f t="shared" si="0"/>
         <v>42312</v>
       </c>
@@ -5788,7 +6644,7 @@
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <f t="shared" si="0"/>
         <v>42313</v>
       </c>
@@ -5887,7 +6743,7 @@
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <f t="shared" si="0"/>
         <v>42314</v>
       </c>
@@ -5986,7 +6842,7 @@
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A33" s="6">
+      <c r="A33" s="5">
         <f t="shared" si="0"/>
         <v>42315</v>
       </c>
@@ -6085,7 +6941,7 @@
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <f t="shared" si="0"/>
         <v>42316</v>
       </c>
@@ -6184,7 +7040,7 @@
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A35" s="6">
+      <c r="A35" s="5">
         <f t="shared" si="0"/>
         <v>42317</v>
       </c>
@@ -6283,7 +7139,7 @@
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
+      <c r="A36" s="5">
         <f t="shared" si="0"/>
         <v>42318</v>
       </c>
@@ -6382,7 +7238,7 @@
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A37" s="6">
+      <c r="A37" s="5">
         <f t="shared" si="0"/>
         <v>42319</v>
       </c>
@@ -6481,7 +7337,7 @@
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A38" s="6">
+      <c r="A38" s="5">
         <f t="shared" si="0"/>
         <v>42320</v>
       </c>
@@ -6580,7 +7436,7 @@
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A39" s="6">
+      <c r="A39" s="5">
         <f t="shared" si="0"/>
         <v>42321</v>
       </c>
@@ -6679,7 +7535,7 @@
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A40" s="6">
+      <c r="A40" s="5">
         <f t="shared" si="0"/>
         <v>42322</v>
       </c>
@@ -6778,7 +7634,7 @@
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A41" s="6">
+      <c r="A41" s="5">
         <f t="shared" si="0"/>
         <v>42323</v>
       </c>
@@ -6877,7 +7733,7 @@
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A42" s="6">
+      <c r="A42" s="5">
         <f t="shared" si="0"/>
         <v>42324</v>
       </c>
@@ -6976,7 +7832,7 @@
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A43" s="6">
+      <c r="A43" s="5">
         <f t="shared" si="0"/>
         <v>42325</v>
       </c>
@@ -7075,7 +7931,7 @@
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A44" s="6">
+      <c r="A44" s="5">
         <f t="shared" si="0"/>
         <v>42326</v>
       </c>
@@ -7174,7 +8030,7 @@
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A45" s="6">
+      <c r="A45" s="5">
         <f t="shared" si="0"/>
         <v>42327</v>
       </c>
@@ -7273,7 +8129,7 @@
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A46" s="6">
+      <c r="A46" s="5">
         <f t="shared" si="0"/>
         <v>42328</v>
       </c>
@@ -7372,7 +8228,7 @@
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A47" s="6">
+      <c r="A47" s="5">
         <f t="shared" si="0"/>
         <v>42329</v>
       </c>
@@ -7471,7 +8327,7 @@
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A48" s="6">
+      <c r="A48" s="5">
         <f t="shared" si="0"/>
         <v>42330</v>
       </c>
@@ -7570,7 +8426,7 @@
       </c>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A49" s="6">
+      <c r="A49" s="5">
         <f t="shared" si="0"/>
         <v>42331</v>
       </c>
@@ -7669,7 +8525,7 @@
       </c>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A50" s="6">
+      <c r="A50" s="5">
         <f t="shared" si="0"/>
         <v>42332</v>
       </c>
@@ -7768,7 +8624,7 @@
       </c>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A51" s="6">
+      <c r="A51" s="5">
         <f t="shared" si="0"/>
         <v>42333</v>
       </c>
@@ -7867,7 +8723,7 @@
       </c>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A52" s="6">
+      <c r="A52" s="5">
         <f t="shared" si="0"/>
         <v>42335</v>
       </c>
@@ -7966,7 +8822,7 @@
       </c>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A53" s="6">
+      <c r="A53" s="5">
         <f t="shared" si="0"/>
         <v>42336</v>
       </c>
@@ -8065,7 +8921,7 @@
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A54" s="6">
+      <c r="A54" s="5">
         <f t="shared" si="0"/>
         <v>42337</v>
       </c>
@@ -8164,7 +9020,7 @@
       </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A55" s="6">
+      <c r="A55" s="5">
         <f t="shared" si="0"/>
         <v>42338</v>
       </c>
@@ -8263,7 +9119,7 @@
       </c>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A56" s="6">
+      <c r="A56" s="5">
         <f t="shared" si="0"/>
         <v>42339</v>
       </c>
@@ -8362,7 +9218,7 @@
       </c>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A57" s="6">
+      <c r="A57" s="5">
         <f t="shared" si="0"/>
         <v>42340</v>
       </c>
@@ -8461,7 +9317,7 @@
       </c>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A58" s="6">
+      <c r="A58" s="5">
         <f t="shared" si="0"/>
         <v>42341</v>
       </c>
@@ -8560,7 +9416,7 @@
       </c>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A59" s="6">
+      <c r="A59" s="5">
         <f t="shared" si="0"/>
         <v>42342</v>
       </c>
@@ -8659,7 +9515,7 @@
       </c>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A60" s="6">
+      <c r="A60" s="5">
         <f t="shared" si="0"/>
         <v>42343</v>
       </c>
@@ -8758,7 +9614,7 @@
       </c>
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A61" s="6">
+      <c r="A61" s="5">
         <f t="shared" si="0"/>
         <v>42344</v>
       </c>
@@ -8857,7 +9713,7 @@
       </c>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A62" s="6">
+      <c r="A62" s="5">
         <f t="shared" si="0"/>
         <v>42345</v>
       </c>
@@ -8956,7 +9812,7 @@
       </c>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A63" s="6">
+      <c r="A63" s="5">
         <f t="shared" si="0"/>
         <v>42346</v>
       </c>
@@ -9055,7 +9911,7 @@
       </c>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A64" s="6">
+      <c r="A64" s="5">
         <f t="shared" si="0"/>
         <v>42347</v>
       </c>
@@ -9154,7 +10010,7 @@
       </c>
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A65" s="6">
+      <c r="A65" s="5">
         <f t="shared" si="0"/>
         <v>42348</v>
       </c>
@@ -9253,7 +10109,7 @@
       </c>
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A66" s="6">
+      <c r="A66" s="5">
         <f t="shared" si="0"/>
         <v>42349</v>
       </c>
@@ -9352,7 +10208,7 @@
       </c>
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A67" s="6">
+      <c r="A67" s="5">
         <f t="shared" ref="A67:A130" si="1">DATE(YEAR(B67)-(3915-2015),MONTH(B67),DAY(B67))</f>
         <v>42350</v>
       </c>
@@ -9451,7 +10307,7 @@
       </c>
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A68" s="6">
+      <c r="A68" s="5">
         <f t="shared" si="1"/>
         <v>42351</v>
       </c>
@@ -9550,7 +10406,7 @@
       </c>
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A69" s="6">
+      <c r="A69" s="5">
         <f t="shared" si="1"/>
         <v>42352</v>
       </c>
@@ -9649,7 +10505,7 @@
       </c>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A70" s="6">
+      <c r="A70" s="5">
         <f t="shared" si="1"/>
         <v>42353</v>
       </c>
@@ -9748,7 +10604,7 @@
       </c>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A71" s="6">
+      <c r="A71" s="5">
         <f t="shared" si="1"/>
         <v>42354</v>
       </c>
@@ -9847,7 +10703,7 @@
       </c>
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A72" s="6">
+      <c r="A72" s="5">
         <f t="shared" si="1"/>
         <v>42355</v>
       </c>
@@ -9946,7 +10802,7 @@
       </c>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A73" s="6">
+      <c r="A73" s="5">
         <f t="shared" si="1"/>
         <v>42356</v>
       </c>
@@ -10045,7 +10901,7 @@
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A74" s="6">
+      <c r="A74" s="5">
         <f t="shared" si="1"/>
         <v>42357</v>
       </c>
@@ -10144,7 +11000,7 @@
       </c>
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A75" s="6">
+      <c r="A75" s="5">
         <f t="shared" si="1"/>
         <v>42358</v>
       </c>
@@ -10243,7 +11099,7 @@
       </c>
     </row>
     <row r="76" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A76" s="6">
+      <c r="A76" s="5">
         <f t="shared" si="1"/>
         <v>42359</v>
       </c>
@@ -10342,7 +11198,7 @@
       </c>
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A77" s="6">
+      <c r="A77" s="5">
         <f t="shared" si="1"/>
         <v>42360</v>
       </c>
@@ -10441,7 +11297,7 @@
       </c>
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A78" s="6">
+      <c r="A78" s="5">
         <f t="shared" si="1"/>
         <v>42364</v>
       </c>
@@ -10540,7 +11396,7 @@
       </c>
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A79" s="6">
+      <c r="A79" s="5">
         <f t="shared" si="1"/>
         <v>42365</v>
       </c>
@@ -10639,7 +11495,7 @@
       </c>
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A80" s="6">
+      <c r="A80" s="5">
         <f t="shared" si="1"/>
         <v>42366</v>
       </c>
@@ -10738,7 +11594,7 @@
       </c>
     </row>
     <row r="81" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A81" s="6">
+      <c r="A81" s="5">
         <f t="shared" si="1"/>
         <v>42367</v>
       </c>
@@ -10837,7 +11693,7 @@
       </c>
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A82" s="6">
+      <c r="A82" s="5">
         <f t="shared" si="1"/>
         <v>42368</v>
       </c>
@@ -10936,7 +11792,7 @@
       </c>
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A83" s="6">
+      <c r="A83" s="5">
         <f t="shared" si="1"/>
         <v>42369</v>
       </c>
@@ -11035,7 +11891,7 @@
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A84" s="6">
+      <c r="A84" s="5">
         <f t="shared" si="1"/>
         <v>42370</v>
       </c>
@@ -11134,7 +11990,7 @@
       </c>
     </row>
     <row r="85" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A85" s="6">
+      <c r="A85" s="5">
         <f t="shared" si="1"/>
         <v>42371</v>
       </c>
@@ -11233,7 +12089,7 @@
       </c>
     </row>
     <row r="86" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A86" s="6">
+      <c r="A86" s="5">
         <f t="shared" si="1"/>
         <v>42372</v>
       </c>
@@ -11332,7 +12188,7 @@
       </c>
     </row>
     <row r="87" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A87" s="6">
+      <c r="A87" s="5">
         <f t="shared" si="1"/>
         <v>42373</v>
       </c>
@@ -11431,7 +12287,7 @@
       </c>
     </row>
     <row r="88" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A88" s="6">
+      <c r="A88" s="5">
         <f t="shared" si="1"/>
         <v>42374</v>
       </c>
@@ -11530,7 +12386,7 @@
       </c>
     </row>
     <row r="89" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A89" s="6">
+      <c r="A89" s="5">
         <f t="shared" si="1"/>
         <v>42375</v>
       </c>
@@ -11629,7 +12485,7 @@
       </c>
     </row>
     <row r="90" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A90" s="6">
+      <c r="A90" s="5">
         <f t="shared" si="1"/>
         <v>42376</v>
       </c>
@@ -11728,7 +12584,7 @@
       </c>
     </row>
     <row r="91" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A91" s="6">
+      <c r="A91" s="5">
         <f t="shared" si="1"/>
         <v>42377</v>
       </c>
@@ -11827,7 +12683,7 @@
       </c>
     </row>
     <row r="92" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A92" s="6">
+      <c r="A92" s="5">
         <f t="shared" si="1"/>
         <v>42378</v>
       </c>
@@ -11926,7 +12782,7 @@
       </c>
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A93" s="6">
+      <c r="A93" s="5">
         <f t="shared" si="1"/>
         <v>42379</v>
       </c>
@@ -12025,7 +12881,7 @@
       </c>
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A94" s="6">
+      <c r="A94" s="5">
         <f t="shared" si="1"/>
         <v>42380</v>
       </c>
@@ -12124,7 +12980,7 @@
       </c>
     </row>
     <row r="95" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A95" s="6">
+      <c r="A95" s="5">
         <f t="shared" si="1"/>
         <v>42381</v>
       </c>
@@ -12223,7 +13079,7 @@
       </c>
     </row>
     <row r="96" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A96" s="6">
+      <c r="A96" s="5">
         <f t="shared" si="1"/>
         <v>42382</v>
       </c>
@@ -12322,7 +13178,7 @@
       </c>
     </row>
     <row r="97" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A97" s="6">
+      <c r="A97" s="5">
         <f t="shared" si="1"/>
         <v>42383</v>
       </c>
@@ -12421,7 +13277,7 @@
       </c>
     </row>
     <row r="98" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A98" s="6">
+      <c r="A98" s="5">
         <f t="shared" si="1"/>
         <v>42384</v>
       </c>
@@ -12520,7 +13376,7 @@
       </c>
     </row>
     <row r="99" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A99" s="6">
+      <c r="A99" s="5">
         <f t="shared" si="1"/>
         <v>42385</v>
       </c>
@@ -12619,7 +13475,7 @@
       </c>
     </row>
     <row r="100" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A100" s="6">
+      <c r="A100" s="5">
         <f t="shared" si="1"/>
         <v>42386</v>
       </c>
@@ -12718,7 +13574,7 @@
       </c>
     </row>
     <row r="101" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A101" s="6">
+      <c r="A101" s="5">
         <f t="shared" si="1"/>
         <v>42387</v>
       </c>
@@ -12817,7 +13673,7 @@
       </c>
     </row>
     <row r="102" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A102" s="6">
+      <c r="A102" s="5">
         <f t="shared" si="1"/>
         <v>42388</v>
       </c>
@@ -12916,7 +13772,7 @@
       </c>
     </row>
     <row r="103" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A103" s="6">
+      <c r="A103" s="5">
         <f t="shared" si="1"/>
         <v>42389</v>
       </c>
@@ -13015,7 +13871,7 @@
       </c>
     </row>
     <row r="104" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A104" s="6">
+      <c r="A104" s="5">
         <f t="shared" si="1"/>
         <v>42390</v>
       </c>
@@ -13114,7 +13970,7 @@
       </c>
     </row>
     <row r="105" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A105" s="6">
+      <c r="A105" s="5">
         <f t="shared" si="1"/>
         <v>42391</v>
       </c>
@@ -13213,7 +14069,7 @@
       </c>
     </row>
     <row r="106" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A106" s="6">
+      <c r="A106" s="5">
         <f t="shared" si="1"/>
         <v>42392</v>
       </c>
@@ -13312,7 +14168,7 @@
       </c>
     </row>
     <row r="107" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A107" s="6">
+      <c r="A107" s="5">
         <f t="shared" si="1"/>
         <v>42393</v>
       </c>
@@ -13411,7 +14267,7 @@
       </c>
     </row>
     <row r="108" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A108" s="6">
+      <c r="A108" s="5">
         <f t="shared" si="1"/>
         <v>42394</v>
       </c>
@@ -13510,7 +14366,7 @@
       </c>
     </row>
     <row r="109" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A109" s="6">
+      <c r="A109" s="5">
         <f t="shared" si="1"/>
         <v>42395</v>
       </c>
@@ -13609,7 +14465,7 @@
       </c>
     </row>
     <row r="110" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A110" s="6">
+      <c r="A110" s="5">
         <f t="shared" si="1"/>
         <v>42396</v>
       </c>
@@ -13708,7 +14564,7 @@
       </c>
     </row>
     <row r="111" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A111" s="6">
+      <c r="A111" s="5">
         <f t="shared" si="1"/>
         <v>42402</v>
       </c>
@@ -13807,7 +14663,7 @@
       </c>
     </row>
     <row r="112" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A112" s="6">
+      <c r="A112" s="5">
         <f t="shared" si="1"/>
         <v>42403</v>
       </c>
@@ -13906,7 +14762,7 @@
       </c>
     </row>
     <row r="113" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A113" s="6">
+      <c r="A113" s="5">
         <f t="shared" si="1"/>
         <v>42404</v>
       </c>
@@ -14005,7 +14861,7 @@
       </c>
     </row>
     <row r="114" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A114" s="6">
+      <c r="A114" s="5">
         <f t="shared" si="1"/>
         <v>42405</v>
       </c>
@@ -14104,7 +14960,7 @@
       </c>
     </row>
     <row r="115" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A115" s="6">
+      <c r="A115" s="5">
         <f t="shared" si="1"/>
         <v>42406</v>
       </c>
@@ -14203,7 +15059,7 @@
       </c>
     </row>
     <row r="116" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A116" s="6">
+      <c r="A116" s="5">
         <f t="shared" si="1"/>
         <v>42407</v>
       </c>
@@ -14302,7 +15158,7 @@
       </c>
     </row>
     <row r="117" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A117" s="6">
+      <c r="A117" s="5">
         <f t="shared" si="1"/>
         <v>42408</v>
       </c>
@@ -14401,7 +15257,7 @@
       </c>
     </row>
     <row r="118" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A118" s="6">
+      <c r="A118" s="5">
         <f t="shared" si="1"/>
         <v>42409</v>
       </c>
@@ -14500,7 +15356,7 @@
       </c>
     </row>
     <row r="119" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A119" s="6">
+      <c r="A119" s="5">
         <f t="shared" si="1"/>
         <v>42410</v>
       </c>
@@ -14599,7 +15455,7 @@
       </c>
     </row>
     <row r="120" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A120" s="6">
+      <c r="A120" s="5">
         <f t="shared" si="1"/>
         <v>42411</v>
       </c>
@@ -14698,7 +15554,7 @@
       </c>
     </row>
     <row r="121" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A121" s="6">
+      <c r="A121" s="5">
         <f t="shared" si="1"/>
         <v>42412</v>
       </c>
@@ -14797,7 +15653,7 @@
       </c>
     </row>
     <row r="122" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A122" s="6">
+      <c r="A122" s="5">
         <f t="shared" si="1"/>
         <v>42413</v>
       </c>
@@ -14896,7 +15752,7 @@
       </c>
     </row>
     <row r="123" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A123" s="6">
+      <c r="A123" s="5">
         <f t="shared" si="1"/>
         <v>42414</v>
       </c>
@@ -14995,7 +15851,7 @@
       </c>
     </row>
     <row r="124" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A124" s="6">
+      <c r="A124" s="5">
         <f t="shared" si="1"/>
         <v>42415</v>
       </c>
@@ -15094,7 +15950,7 @@
       </c>
     </row>
     <row r="125" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A125" s="6">
+      <c r="A125" s="5">
         <f t="shared" si="1"/>
         <v>42416</v>
       </c>
@@ -15193,7 +16049,7 @@
       </c>
     </row>
     <row r="126" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A126" s="6">
+      <c r="A126" s="5">
         <f t="shared" si="1"/>
         <v>42417</v>
       </c>
@@ -15292,7 +16148,7 @@
       </c>
     </row>
     <row r="127" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A127" s="6">
+      <c r="A127" s="5">
         <f t="shared" si="1"/>
         <v>42418</v>
       </c>
@@ -15391,7 +16247,7 @@
       </c>
     </row>
     <row r="128" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A128" s="6">
+      <c r="A128" s="5">
         <f t="shared" si="1"/>
         <v>42419</v>
       </c>
@@ -15490,7 +16346,7 @@
       </c>
     </row>
     <row r="129" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A129" s="6">
+      <c r="A129" s="5">
         <f t="shared" si="1"/>
         <v>42420</v>
       </c>
@@ -15589,7 +16445,7 @@
       </c>
     </row>
     <row r="130" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A130" s="6">
+      <c r="A130" s="5">
         <f t="shared" si="1"/>
         <v>42421</v>
       </c>
@@ -15688,7 +16544,7 @@
       </c>
     </row>
     <row r="131" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A131" s="6">
+      <c r="A131" s="5">
         <f t="shared" ref="A131:A194" si="2">DATE(YEAR(B131)-(3915-2015),MONTH(B131),DAY(B131))</f>
         <v>42422</v>
       </c>
@@ -15787,7 +16643,7 @@
       </c>
     </row>
     <row r="132" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A132" s="6">
+      <c r="A132" s="5">
         <f t="shared" si="2"/>
         <v>42423</v>
       </c>
@@ -15886,7 +16742,7 @@
       </c>
     </row>
     <row r="133" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A133" s="6">
+      <c r="A133" s="5">
         <f t="shared" si="2"/>
         <v>42424</v>
       </c>
@@ -15985,7 +16841,7 @@
       </c>
     </row>
     <row r="134" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A134" s="6">
+      <c r="A134" s="5">
         <f t="shared" si="2"/>
         <v>42425</v>
       </c>
@@ -16084,7 +16940,7 @@
       </c>
     </row>
     <row r="135" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A135" s="6">
+      <c r="A135" s="5">
         <f t="shared" si="2"/>
         <v>42426</v>
       </c>
@@ -16183,7 +17039,7 @@
       </c>
     </row>
     <row r="136" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A136" s="6">
+      <c r="A136" s="5">
         <f t="shared" si="2"/>
         <v>42427</v>
       </c>
@@ -16282,7 +17138,7 @@
       </c>
     </row>
     <row r="137" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A137" s="6">
+      <c r="A137" s="5">
         <f t="shared" si="2"/>
         <v>42428</v>
       </c>
@@ -16381,7 +17237,7 @@
       </c>
     </row>
     <row r="138" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A138" s="6">
+      <c r="A138" s="5">
         <f t="shared" si="2"/>
         <v>42429</v>
       </c>
@@ -16480,7 +17336,7 @@
       </c>
     </row>
     <row r="139" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A139" s="6">
+      <c r="A139" s="5">
         <f t="shared" si="2"/>
         <v>42430</v>
       </c>
@@ -16579,7 +17435,7 @@
       </c>
     </row>
     <row r="140" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A140" s="6">
+      <c r="A140" s="5">
         <f t="shared" si="2"/>
         <v>42431</v>
       </c>
@@ -16678,7 +17534,7 @@
       </c>
     </row>
     <row r="141" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A141" s="6">
+      <c r="A141" s="5">
         <f t="shared" si="2"/>
         <v>42432</v>
       </c>
@@ -16777,7 +17633,7 @@
       </c>
     </row>
     <row r="142" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A142" s="6">
+      <c r="A142" s="5">
         <f t="shared" si="2"/>
         <v>42433</v>
       </c>
@@ -16876,7 +17732,7 @@
       </c>
     </row>
     <row r="143" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A143" s="6">
+      <c r="A143" s="5">
         <f t="shared" si="2"/>
         <v>42434</v>
       </c>
@@ -16975,7 +17831,7 @@
       </c>
     </row>
     <row r="144" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A144" s="6">
+      <c r="A144" s="5">
         <f t="shared" si="2"/>
         <v>42435</v>
       </c>
@@ -17074,7 +17930,7 @@
       </c>
     </row>
     <row r="145" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A145" s="6">
+      <c r="A145" s="5">
         <f t="shared" si="2"/>
         <v>42436</v>
       </c>
@@ -17173,7 +18029,7 @@
       </c>
     </row>
     <row r="146" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A146" s="6">
+      <c r="A146" s="5">
         <f t="shared" si="2"/>
         <v>42437</v>
       </c>
@@ -17272,7 +18128,7 @@
       </c>
     </row>
     <row r="147" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A147" s="6">
+      <c r="A147" s="5">
         <f t="shared" si="2"/>
         <v>42438</v>
       </c>
@@ -17371,7 +18227,7 @@
       </c>
     </row>
     <row r="148" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A148" s="6">
+      <c r="A148" s="5">
         <f t="shared" si="2"/>
         <v>42439</v>
       </c>
@@ -17470,7 +18326,7 @@
       </c>
     </row>
     <row r="149" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A149" s="6">
+      <c r="A149" s="5">
         <f t="shared" si="2"/>
         <v>42440</v>
       </c>
@@ -17569,7 +18425,7 @@
       </c>
     </row>
     <row r="150" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A150" s="6">
+      <c r="A150" s="5">
         <f t="shared" si="2"/>
         <v>42441</v>
       </c>
@@ -17668,7 +18524,7 @@
       </c>
     </row>
     <row r="151" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A151" s="6">
+      <c r="A151" s="5">
         <f t="shared" si="2"/>
         <v>42442</v>
       </c>
@@ -17767,7 +18623,7 @@
       </c>
     </row>
     <row r="152" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A152" s="6">
+      <c r="A152" s="5">
         <f t="shared" si="2"/>
         <v>42443</v>
       </c>
@@ -17866,7 +18722,7 @@
       </c>
     </row>
     <row r="153" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A153" s="6">
+      <c r="A153" s="5">
         <f t="shared" si="2"/>
         <v>42444</v>
       </c>
@@ -17965,7 +18821,7 @@
       </c>
     </row>
     <row r="154" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A154" s="6">
+      <c r="A154" s="5">
         <f t="shared" si="2"/>
         <v>42445</v>
       </c>
@@ -18064,7 +18920,7 @@
       </c>
     </row>
     <row r="155" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A155" s="6">
+      <c r="A155" s="5">
         <f t="shared" si="2"/>
         <v>42446</v>
       </c>
@@ -18163,7 +19019,7 @@
       </c>
     </row>
     <row r="156" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A156" s="6">
+      <c r="A156" s="5">
         <f t="shared" si="2"/>
         <v>42447</v>
       </c>
@@ -18262,7 +19118,7 @@
       </c>
     </row>
     <row r="157" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A157" s="6">
+      <c r="A157" s="5">
         <f t="shared" si="2"/>
         <v>42448</v>
       </c>
@@ -18361,7 +19217,7 @@
       </c>
     </row>
     <row r="158" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A158" s="6">
+      <c r="A158" s="5">
         <f t="shared" si="2"/>
         <v>42449</v>
       </c>
@@ -18460,7 +19316,7 @@
       </c>
     </row>
     <row r="159" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A159" s="6">
+      <c r="A159" s="5">
         <f t="shared" si="2"/>
         <v>42450</v>
       </c>
@@ -18559,7 +19415,7 @@
       </c>
     </row>
     <row r="160" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A160" s="6">
+      <c r="A160" s="5">
         <f t="shared" si="2"/>
         <v>42451</v>
       </c>
@@ -18658,7 +19514,7 @@
       </c>
     </row>
     <row r="161" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A161" s="6">
+      <c r="A161" s="5">
         <f t="shared" si="2"/>
         <v>42452</v>
       </c>
@@ -18757,7 +19613,7 @@
       </c>
     </row>
     <row r="162" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A162" s="6">
+      <c r="A162" s="5">
         <f t="shared" si="2"/>
         <v>42453</v>
       </c>
@@ -18856,7 +19712,7 @@
       </c>
     </row>
     <row r="163" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A163" s="6">
+      <c r="A163" s="5">
         <f t="shared" si="2"/>
         <v>42454</v>
       </c>
@@ -18955,7 +19811,7 @@
       </c>
     </row>
     <row r="164" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A164" s="6">
+      <c r="A164" s="5">
         <f t="shared" si="2"/>
         <v>42455</v>
       </c>
@@ -19054,7 +19910,7 @@
       </c>
     </row>
     <row r="165" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A165" s="6">
+      <c r="A165" s="5">
         <f t="shared" si="2"/>
         <v>42456</v>
       </c>
@@ -19153,7 +20009,7 @@
       </c>
     </row>
     <row r="166" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A166" s="6">
+      <c r="A166" s="5">
         <f t="shared" si="2"/>
         <v>42457</v>
       </c>
@@ -19252,7 +20108,7 @@
       </c>
     </row>
     <row r="167" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A167" s="6">
+      <c r="A167" s="5">
         <f t="shared" si="2"/>
         <v>42458</v>
       </c>
@@ -19351,7 +20207,7 @@
       </c>
     </row>
     <row r="168" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A168" s="6">
+      <c r="A168" s="5">
         <f t="shared" si="2"/>
         <v>42459</v>
       </c>
@@ -19450,7 +20306,7 @@
       </c>
     </row>
     <row r="169" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A169" s="6">
+      <c r="A169" s="5">
         <f t="shared" si="2"/>
         <v>42460</v>
       </c>
@@ -19549,7 +20405,7 @@
       </c>
     </row>
     <row r="170" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A170" s="6">
+      <c r="A170" s="5">
         <f t="shared" si="2"/>
         <v>42461</v>
       </c>
@@ -19648,7 +20504,7 @@
       </c>
     </row>
     <row r="171" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A171" s="6">
+      <c r="A171" s="5">
         <f t="shared" si="2"/>
         <v>42462</v>
       </c>
@@ -19747,7 +20603,7 @@
       </c>
     </row>
     <row r="172" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A172" s="6">
+      <c r="A172" s="5">
         <f t="shared" si="2"/>
         <v>42463</v>
       </c>
@@ -19846,7 +20702,7 @@
       </c>
     </row>
     <row r="173" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A173" s="6">
+      <c r="A173" s="5">
         <f t="shared" si="2"/>
         <v>42464</v>
       </c>
@@ -19945,7 +20801,7 @@
       </c>
     </row>
     <row r="174" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A174" s="6">
+      <c r="A174" s="5">
         <f t="shared" si="2"/>
         <v>42465</v>
       </c>
@@ -20044,7 +20900,7 @@
       </c>
     </row>
     <row r="175" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A175" s="6">
+      <c r="A175" s="5">
         <f t="shared" si="2"/>
         <v>42466</v>
       </c>
@@ -20143,7 +20999,7 @@
       </c>
     </row>
     <row r="176" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A176" s="6">
+      <c r="A176" s="5">
         <f t="shared" si="2"/>
         <v>42467</v>
       </c>
@@ -20242,7 +21098,7 @@
       </c>
     </row>
     <row r="177" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A177" s="6">
+      <c r="A177" s="5">
         <f t="shared" si="2"/>
         <v>42468</v>
       </c>
@@ -20341,7 +21197,7 @@
       </c>
     </row>
     <row r="178" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A178" s="6">
+      <c r="A178" s="5">
         <f t="shared" si="2"/>
         <v>42469</v>
       </c>
@@ -20440,7 +21296,7 @@
       </c>
     </row>
     <row r="179" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A179" s="6">
+      <c r="A179" s="5">
         <f t="shared" si="2"/>
         <v>42470</v>
       </c>
@@ -20539,7 +21395,7 @@
       </c>
     </row>
     <row r="180" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A180" s="6">
+      <c r="A180" s="5">
         <f t="shared" si="2"/>
         <v>42638</v>
       </c>
@@ -20638,7 +21494,7 @@
       </c>
     </row>
     <row r="181" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A181" s="6">
+      <c r="A181" s="5">
         <f t="shared" si="2"/>
         <v>42639</v>
       </c>
@@ -20737,7 +21593,7 @@
       </c>
     </row>
     <row r="182" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A182" s="6">
+      <c r="A182" s="5">
         <f t="shared" si="2"/>
         <v>42640</v>
       </c>
@@ -20836,7 +21692,7 @@
       </c>
     </row>
     <row r="183" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A183" s="6">
+      <c r="A183" s="5">
         <f t="shared" si="2"/>
         <v>42641</v>
       </c>
@@ -20935,7 +21791,7 @@
       </c>
     </row>
     <row r="184" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A184" s="6">
+      <c r="A184" s="5">
         <f t="shared" si="2"/>
         <v>42642</v>
       </c>
@@ -21034,7 +21890,7 @@
       </c>
     </row>
     <row r="185" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A185" s="6">
+      <c r="A185" s="5">
         <f t="shared" si="2"/>
         <v>42643</v>
       </c>
@@ -21133,7 +21989,7 @@
       </c>
     </row>
     <row r="186" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A186" s="6">
+      <c r="A186" s="5">
         <f t="shared" si="2"/>
         <v>42644</v>
       </c>
@@ -21232,7 +22088,7 @@
       </c>
     </row>
     <row r="187" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A187" s="6">
+      <c r="A187" s="5">
         <f t="shared" si="2"/>
         <v>42645</v>
       </c>
@@ -21331,7 +22187,7 @@
       </c>
     </row>
     <row r="188" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A188" s="6">
+      <c r="A188" s="5">
         <f t="shared" si="2"/>
         <v>42646</v>
       </c>
@@ -21430,7 +22286,7 @@
       </c>
     </row>
     <row r="189" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A189" s="6">
+      <c r="A189" s="5">
         <f t="shared" si="2"/>
         <v>42647</v>
       </c>
@@ -21529,7 +22385,7 @@
       </c>
     </row>
     <row r="190" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A190" s="6">
+      <c r="A190" s="5">
         <f t="shared" si="2"/>
         <v>42648</v>
       </c>
@@ -21628,7 +22484,7 @@
       </c>
     </row>
     <row r="191" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A191" s="6">
+      <c r="A191" s="5">
         <f t="shared" si="2"/>
         <v>42649</v>
       </c>
@@ -21727,7 +22583,7 @@
       </c>
     </row>
     <row r="192" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A192" s="6">
+      <c r="A192" s="5">
         <f t="shared" si="2"/>
         <v>42650</v>
       </c>
@@ -21826,7 +22682,7 @@
       </c>
     </row>
     <row r="193" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A193" s="6">
+      <c r="A193" s="5">
         <f t="shared" si="2"/>
         <v>42651</v>
       </c>
@@ -21925,7 +22781,7 @@
       </c>
     </row>
     <row r="194" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A194" s="6">
+      <c r="A194" s="5">
         <f t="shared" si="2"/>
         <v>42652</v>
       </c>
@@ -22024,7 +22880,7 @@
       </c>
     </row>
     <row r="195" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A195" s="6">
+      <c r="A195" s="5">
         <f t="shared" ref="A195:A258" si="3">DATE(YEAR(B195)-(3915-2015),MONTH(B195),DAY(B195))</f>
         <v>42655</v>
       </c>
@@ -22123,7 +22979,7 @@
       </c>
     </row>
     <row r="196" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A196" s="6">
+      <c r="A196" s="5">
         <f t="shared" si="3"/>
         <v>42656</v>
       </c>
@@ -22222,7 +23078,7 @@
       </c>
     </row>
     <row r="197" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A197" s="6">
+      <c r="A197" s="5">
         <f t="shared" si="3"/>
         <v>42657</v>
       </c>
@@ -22321,7 +23177,7 @@
       </c>
     </row>
     <row r="198" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A198" s="6">
+      <c r="A198" s="5">
         <f t="shared" si="3"/>
         <v>42658</v>
       </c>
@@ -22420,7 +23276,7 @@
       </c>
     </row>
     <row r="199" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A199" s="6">
+      <c r="A199" s="5">
         <f t="shared" si="3"/>
         <v>42659</v>
       </c>
@@ -22519,7 +23375,7 @@
       </c>
     </row>
     <row r="200" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A200" s="6">
+      <c r="A200" s="5">
         <f t="shared" si="3"/>
         <v>42660</v>
       </c>
@@ -22618,7 +23474,7 @@
       </c>
     </row>
     <row r="201" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A201" s="6">
+      <c r="A201" s="5">
         <f t="shared" si="3"/>
         <v>42661</v>
       </c>
@@ -22717,7 +23573,7 @@
       </c>
     </row>
     <row r="202" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A202" s="6">
+      <c r="A202" s="5">
         <f t="shared" si="3"/>
         <v>42662</v>
       </c>
@@ -22816,7 +23672,7 @@
       </c>
     </row>
     <row r="203" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A203" s="6">
+      <c r="A203" s="5">
         <f t="shared" si="3"/>
         <v>42663</v>
       </c>
@@ -22915,7 +23771,7 @@
       </c>
     </row>
     <row r="204" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A204" s="6">
+      <c r="A204" s="5">
         <f t="shared" si="3"/>
         <v>42664</v>
       </c>
@@ -23014,7 +23870,7 @@
       </c>
     </row>
     <row r="205" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A205" s="6">
+      <c r="A205" s="5">
         <f t="shared" si="3"/>
         <v>42665</v>
       </c>
@@ -23113,7 +23969,7 @@
       </c>
     </row>
     <row r="206" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A206" s="6">
+      <c r="A206" s="5">
         <f t="shared" si="3"/>
         <v>42666</v>
       </c>
@@ -23212,7 +24068,7 @@
       </c>
     </row>
     <row r="207" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A207" s="6">
+      <c r="A207" s="5">
         <f t="shared" si="3"/>
         <v>42667</v>
       </c>
@@ -23311,7 +24167,7 @@
       </c>
     </row>
     <row r="208" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A208" s="6">
+      <c r="A208" s="5">
         <f t="shared" si="3"/>
         <v>42668</v>
       </c>
@@ -23410,7 +24266,7 @@
       </c>
     </row>
     <row r="209" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A209" s="6">
+      <c r="A209" s="5">
         <f t="shared" si="3"/>
         <v>42669</v>
       </c>
@@ -23509,7 +24365,7 @@
       </c>
     </row>
     <row r="210" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A210" s="6">
+      <c r="A210" s="5">
         <f t="shared" si="3"/>
         <v>42670</v>
       </c>
@@ -23608,7 +24464,7 @@
       </c>
     </row>
     <row r="211" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A211" s="6">
+      <c r="A211" s="5">
         <f t="shared" si="3"/>
         <v>42671</v>
       </c>
@@ -23707,7 +24563,7 @@
       </c>
     </row>
     <row r="212" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A212" s="6">
+      <c r="A212" s="5">
         <f t="shared" si="3"/>
         <v>42672</v>
       </c>
@@ -23806,7 +24662,7 @@
       </c>
     </row>
     <row r="213" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A213" s="6">
+      <c r="A213" s="5">
         <f t="shared" si="3"/>
         <v>42673</v>
       </c>
@@ -23905,7 +24761,7 @@
       </c>
     </row>
     <row r="214" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A214" s="6">
+      <c r="A214" s="5">
         <f t="shared" si="3"/>
         <v>42674</v>
       </c>
@@ -24004,7 +24860,7 @@
       </c>
     </row>
     <row r="215" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A215" s="6">
+      <c r="A215" s="5">
         <f t="shared" si="3"/>
         <v>42675</v>
       </c>
@@ -24103,7 +24959,7 @@
       </c>
     </row>
     <row r="216" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A216" s="6">
+      <c r="A216" s="5">
         <f t="shared" si="3"/>
         <v>42676</v>
       </c>
@@ -24202,7 +25058,7 @@
       </c>
     </row>
     <row r="217" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A217" s="6">
+      <c r="A217" s="5">
         <f t="shared" si="3"/>
         <v>42677</v>
       </c>
@@ -24301,7 +25157,7 @@
       </c>
     </row>
     <row r="218" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A218" s="6">
+      <c r="A218" s="5">
         <f t="shared" si="3"/>
         <v>42678</v>
       </c>
@@ -24400,7 +25256,7 @@
       </c>
     </row>
     <row r="219" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A219" s="6">
+      <c r="A219" s="5">
         <f t="shared" si="3"/>
         <v>42679</v>
       </c>
@@ -24499,7 +25355,7 @@
       </c>
     </row>
     <row r="220" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A220" s="6">
+      <c r="A220" s="5">
         <f t="shared" si="3"/>
         <v>42680</v>
       </c>
@@ -24598,7 +25454,7 @@
       </c>
     </row>
     <row r="221" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A221" s="6">
+      <c r="A221" s="5">
         <f t="shared" si="3"/>
         <v>42681</v>
       </c>
@@ -24697,7 +25553,7 @@
       </c>
     </row>
     <row r="222" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A222" s="6">
+      <c r="A222" s="5">
         <f t="shared" si="3"/>
         <v>42682</v>
       </c>
@@ -24796,7 +25652,7 @@
       </c>
     </row>
     <row r="223" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A223" s="6">
+      <c r="A223" s="5">
         <f t="shared" si="3"/>
         <v>42683</v>
       </c>
@@ -24895,7 +25751,7 @@
       </c>
     </row>
     <row r="224" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A224" s="6">
+      <c r="A224" s="5">
         <f t="shared" si="3"/>
         <v>42684</v>
       </c>
@@ -24994,7 +25850,7 @@
       </c>
     </row>
     <row r="225" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A225" s="6">
+      <c r="A225" s="5">
         <f t="shared" si="3"/>
         <v>42685</v>
       </c>
@@ -25093,7 +25949,7 @@
       </c>
     </row>
     <row r="226" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A226" s="6">
+      <c r="A226" s="5">
         <f t="shared" si="3"/>
         <v>42686</v>
       </c>
@@ -25192,7 +26048,7 @@
       </c>
     </row>
     <row r="227" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A227" s="6">
+      <c r="A227" s="5">
         <f t="shared" si="3"/>
         <v>42687</v>
       </c>
@@ -25291,7 +26147,7 @@
       </c>
     </row>
     <row r="228" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A228" s="6">
+      <c r="A228" s="5">
         <f t="shared" si="3"/>
         <v>42688</v>
       </c>
@@ -25390,7 +26246,7 @@
       </c>
     </row>
     <row r="229" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A229" s="6">
+      <c r="A229" s="5">
         <f t="shared" si="3"/>
         <v>42689</v>
       </c>
@@ -25489,7 +26345,7 @@
       </c>
     </row>
     <row r="230" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A230" s="6">
+      <c r="A230" s="5">
         <f t="shared" si="3"/>
         <v>42690</v>
       </c>
@@ -25588,7 +26444,7 @@
       </c>
     </row>
     <row r="231" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A231" s="6">
+      <c r="A231" s="5">
         <f t="shared" si="3"/>
         <v>42691</v>
       </c>
@@ -25687,7 +26543,7 @@
       </c>
     </row>
     <row r="232" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A232" s="6">
+      <c r="A232" s="5">
         <f t="shared" si="3"/>
         <v>42692</v>
       </c>
@@ -25786,7 +26642,7 @@
       </c>
     </row>
     <row r="233" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A233" s="6">
+      <c r="A233" s="5">
         <f t="shared" si="3"/>
         <v>42693</v>
       </c>
@@ -25885,7 +26741,7 @@
       </c>
     </row>
     <row r="234" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A234" s="6">
+      <c r="A234" s="5">
         <f t="shared" si="3"/>
         <v>42694</v>
       </c>
@@ -25984,7 +26840,7 @@
       </c>
     </row>
     <row r="235" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A235" s="6">
+      <c r="A235" s="5">
         <f t="shared" si="3"/>
         <v>42695</v>
       </c>
@@ -26083,7 +26939,7 @@
       </c>
     </row>
     <row r="236" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A236" s="6">
+      <c r="A236" s="5">
         <f t="shared" si="3"/>
         <v>42696</v>
       </c>
@@ -26182,7 +27038,7 @@
       </c>
     </row>
     <row r="237" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A237" s="6">
+      <c r="A237" s="5">
         <f t="shared" si="3"/>
         <v>42697</v>
       </c>
@@ -26281,7 +27137,7 @@
       </c>
     </row>
     <row r="238" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A238" s="6">
+      <c r="A238" s="5">
         <f t="shared" si="3"/>
         <v>42698</v>
       </c>
@@ -26380,7 +27236,7 @@
       </c>
     </row>
     <row r="239" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A239" s="6">
+      <c r="A239" s="5">
         <f t="shared" si="3"/>
         <v>42699</v>
       </c>
@@ -26479,7 +27335,7 @@
       </c>
     </row>
     <row r="240" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A240" s="6">
+      <c r="A240" s="5">
         <f t="shared" si="3"/>
         <v>42700</v>
       </c>
@@ -26578,7 +27434,7 @@
       </c>
     </row>
     <row r="241" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A241" s="6">
+      <c r="A241" s="5">
         <f t="shared" si="3"/>
         <v>42701</v>
       </c>
@@ -26677,7 +27533,7 @@
       </c>
     </row>
     <row r="242" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A242" s="6">
+      <c r="A242" s="5">
         <f t="shared" si="3"/>
         <v>42702</v>
       </c>
@@ -26776,7 +27632,7 @@
       </c>
     </row>
     <row r="243" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A243" s="6">
+      <c r="A243" s="5">
         <f t="shared" si="3"/>
         <v>42703</v>
       </c>
@@ -26875,7 +27731,7 @@
       </c>
     </row>
     <row r="244" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A244" s="6">
+      <c r="A244" s="5">
         <f t="shared" si="3"/>
         <v>42704</v>
       </c>
@@ -26974,7 +27830,7 @@
       </c>
     </row>
     <row r="245" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A245" s="6">
+      <c r="A245" s="5">
         <f t="shared" si="3"/>
         <v>42705</v>
       </c>
@@ -27073,7 +27929,7 @@
       </c>
     </row>
     <row r="246" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A246" s="6">
+      <c r="A246" s="5">
         <f t="shared" si="3"/>
         <v>42706</v>
       </c>
@@ -27172,7 +28028,7 @@
       </c>
     </row>
     <row r="247" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A247" s="6">
+      <c r="A247" s="5">
         <f t="shared" si="3"/>
         <v>42707</v>
       </c>
@@ -27271,7 +28127,7 @@
       </c>
     </row>
     <row r="248" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A248" s="6">
+      <c r="A248" s="5">
         <f t="shared" si="3"/>
         <v>42708</v>
       </c>
@@ -27370,7 +28226,7 @@
       </c>
     </row>
     <row r="249" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A249" s="6">
+      <c r="A249" s="5">
         <f t="shared" si="3"/>
         <v>42709</v>
       </c>
@@ -27469,7 +28325,7 @@
       </c>
     </row>
     <row r="250" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A250" s="6">
+      <c r="A250" s="5">
         <f t="shared" si="3"/>
         <v>42710</v>
       </c>
@@ -27568,7 +28424,7 @@
       </c>
     </row>
     <row r="251" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A251" s="6">
+      <c r="A251" s="5">
         <f t="shared" si="3"/>
         <v>42711</v>
       </c>
@@ -27667,7 +28523,7 @@
       </c>
     </row>
     <row r="252" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A252" s="6">
+      <c r="A252" s="5">
         <f t="shared" si="3"/>
         <v>42712</v>
       </c>
@@ -27766,7 +28622,7 @@
       </c>
     </row>
     <row r="253" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A253" s="6">
+      <c r="A253" s="5">
         <f t="shared" si="3"/>
         <v>42713</v>
       </c>
@@ -27865,7 +28721,7 @@
       </c>
     </row>
     <row r="254" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A254" s="6">
+      <c r="A254" s="5">
         <f t="shared" si="3"/>
         <v>42714</v>
       </c>
@@ -27964,7 +28820,7 @@
       </c>
     </row>
     <row r="255" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A255" s="6">
+      <c r="A255" s="5">
         <f t="shared" si="3"/>
         <v>42715</v>
       </c>
@@ -28063,7 +28919,7 @@
       </c>
     </row>
     <row r="256" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A256" s="6">
+      <c r="A256" s="5">
         <f t="shared" si="3"/>
         <v>42716</v>
       </c>
@@ -28162,7 +29018,7 @@
       </c>
     </row>
     <row r="257" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A257" s="6">
+      <c r="A257" s="5">
         <f t="shared" si="3"/>
         <v>42717</v>
       </c>
@@ -28261,7 +29117,7 @@
       </c>
     </row>
     <row r="258" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A258" s="6">
+      <c r="A258" s="5">
         <f t="shared" si="3"/>
         <v>42718</v>
       </c>
@@ -28360,7 +29216,7 @@
       </c>
     </row>
     <row r="259" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A259" s="6">
+      <c r="A259" s="5">
         <f t="shared" ref="A259:A322" si="4">DATE(YEAR(B259)-(3915-2015),MONTH(B259),DAY(B259))</f>
         <v>42719</v>
       </c>
@@ -28459,7 +29315,7 @@
       </c>
     </row>
     <row r="260" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A260" s="6">
+      <c r="A260" s="5">
         <f t="shared" si="4"/>
         <v>42720</v>
       </c>
@@ -28558,7 +29414,7 @@
       </c>
     </row>
     <row r="261" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A261" s="6">
+      <c r="A261" s="5">
         <f t="shared" si="4"/>
         <v>42721</v>
       </c>
@@ -28657,7 +29513,7 @@
       </c>
     </row>
     <row r="262" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A262" s="6">
+      <c r="A262" s="5">
         <f t="shared" si="4"/>
         <v>42722</v>
       </c>
@@ -28756,7 +29612,7 @@
       </c>
     </row>
     <row r="263" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A263" s="6">
+      <c r="A263" s="5">
         <f t="shared" si="4"/>
         <v>42723</v>
       </c>
@@ -28855,7 +29711,7 @@
       </c>
     </row>
     <row r="264" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A264" s="6">
+      <c r="A264" s="5">
         <f t="shared" si="4"/>
         <v>42724</v>
       </c>
@@ -28954,7 +29810,7 @@
       </c>
     </row>
     <row r="265" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A265" s="6">
+      <c r="A265" s="5">
         <f t="shared" si="4"/>
         <v>42725</v>
       </c>
@@ -29053,7 +29909,7 @@
       </c>
     </row>
     <row r="266" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A266" s="6">
+      <c r="A266" s="5">
         <f t="shared" si="4"/>
         <v>42726</v>
       </c>
@@ -29152,7 +30008,7 @@
       </c>
     </row>
     <row r="267" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A267" s="6">
+      <c r="A267" s="5">
         <f t="shared" si="4"/>
         <v>42727</v>
       </c>
@@ -29251,7 +30107,7 @@
       </c>
     </row>
     <row r="268" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A268" s="6">
+      <c r="A268" s="5">
         <f t="shared" si="4"/>
         <v>42728</v>
       </c>
@@ -29350,7 +30206,7 @@
       </c>
     </row>
     <row r="269" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A269" s="6">
+      <c r="A269" s="5">
         <f t="shared" si="4"/>
         <v>42732</v>
       </c>
@@ -29449,7 +30305,7 @@
       </c>
     </row>
     <row r="270" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A270" s="6">
+      <c r="A270" s="5">
         <f t="shared" si="4"/>
         <v>42733</v>
       </c>
@@ -29548,7 +30404,7 @@
       </c>
     </row>
     <row r="271" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A271" s="6">
+      <c r="A271" s="5">
         <f t="shared" si="4"/>
         <v>42734</v>
       </c>
@@ -29647,7 +30503,7 @@
       </c>
     </row>
     <row r="272" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A272" s="6">
+      <c r="A272" s="5">
         <f t="shared" si="4"/>
         <v>42735</v>
       </c>
@@ -29746,7 +30602,7 @@
       </c>
     </row>
     <row r="273" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A273" s="6">
+      <c r="A273" s="5">
         <f t="shared" si="4"/>
         <v>42736</v>
       </c>
@@ -29845,7 +30701,7 @@
       </c>
     </row>
     <row r="274" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A274" s="6">
+      <c r="A274" s="5">
         <f t="shared" si="4"/>
         <v>42737</v>
       </c>
@@ -29944,7 +30800,7 @@
       </c>
     </row>
     <row r="275" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A275" s="6">
+      <c r="A275" s="5">
         <f t="shared" si="4"/>
         <v>42738</v>
       </c>
@@ -30043,7 +30899,7 @@
       </c>
     </row>
     <row r="276" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A276" s="6">
+      <c r="A276" s="5">
         <f t="shared" si="4"/>
         <v>42739</v>
       </c>
@@ -30142,7 +30998,7 @@
       </c>
     </row>
     <row r="277" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A277" s="6">
+      <c r="A277" s="5">
         <f t="shared" si="4"/>
         <v>42740</v>
       </c>
@@ -30241,7 +31097,7 @@
       </c>
     </row>
     <row r="278" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A278" s="6">
+      <c r="A278" s="5">
         <f t="shared" si="4"/>
         <v>42741</v>
       </c>
@@ -30340,7 +31196,7 @@
       </c>
     </row>
     <row r="279" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A279" s="6">
+      <c r="A279" s="5">
         <f t="shared" si="4"/>
         <v>42742</v>
       </c>
@@ -30439,7 +31295,7 @@
       </c>
     </row>
     <row r="280" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A280" s="6">
+      <c r="A280" s="5">
         <f t="shared" si="4"/>
         <v>42743</v>
       </c>
@@ -30538,7 +31394,7 @@
       </c>
     </row>
     <row r="281" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A281" s="6">
+      <c r="A281" s="5">
         <f t="shared" si="4"/>
         <v>42744</v>
       </c>
@@ -30637,7 +31493,7 @@
       </c>
     </row>
     <row r="282" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A282" s="6">
+      <c r="A282" s="5">
         <f t="shared" si="4"/>
         <v>42745</v>
       </c>
@@ -30736,7 +31592,7 @@
       </c>
     </row>
     <row r="283" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A283" s="6">
+      <c r="A283" s="5">
         <f t="shared" si="4"/>
         <v>42746</v>
       </c>
@@ -30835,7 +31691,7 @@
       </c>
     </row>
     <row r="284" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A284" s="6">
+      <c r="A284" s="5">
         <f t="shared" si="4"/>
         <v>42747</v>
       </c>
@@ -30934,7 +31790,7 @@
       </c>
     </row>
     <row r="285" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A285" s="6">
+      <c r="A285" s="5">
         <f t="shared" si="4"/>
         <v>42748</v>
       </c>
@@ -31033,7 +31889,7 @@
       </c>
     </row>
     <row r="286" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A286" s="6">
+      <c r="A286" s="5">
         <f t="shared" si="4"/>
         <v>42749</v>
       </c>
@@ -31132,7 +31988,7 @@
       </c>
     </row>
     <row r="287" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A287" s="6">
+      <c r="A287" s="5">
         <f t="shared" si="4"/>
         <v>42750</v>
       </c>
@@ -31231,7 +32087,7 @@
       </c>
     </row>
     <row r="288" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A288" s="6">
+      <c r="A288" s="5">
         <f t="shared" si="4"/>
         <v>42751</v>
       </c>
@@ -31330,7 +32186,7 @@
       </c>
     </row>
     <row r="289" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A289" s="6">
+      <c r="A289" s="5">
         <f t="shared" si="4"/>
         <v>42752</v>
       </c>
@@ -31429,7 +32285,7 @@
       </c>
     </row>
     <row r="290" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A290" s="6">
+      <c r="A290" s="5">
         <f t="shared" si="4"/>
         <v>42753</v>
       </c>
@@ -31528,7 +32384,7 @@
       </c>
     </row>
     <row r="291" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A291" s="6">
+      <c r="A291" s="5">
         <f t="shared" si="4"/>
         <v>42754</v>
       </c>
@@ -31627,7 +32483,7 @@
       </c>
     </row>
     <row r="292" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A292" s="6">
+      <c r="A292" s="5">
         <f t="shared" si="4"/>
         <v>42755</v>
       </c>
@@ -31726,7 +32582,7 @@
       </c>
     </row>
     <row r="293" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A293" s="6">
+      <c r="A293" s="5">
         <f t="shared" si="4"/>
         <v>42756</v>
       </c>
@@ -31825,7 +32681,7 @@
       </c>
     </row>
     <row r="294" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A294" s="6">
+      <c r="A294" s="5">
         <f t="shared" si="4"/>
         <v>42757</v>
       </c>
@@ -31924,7 +32780,7 @@
       </c>
     </row>
     <row r="295" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A295" s="6">
+      <c r="A295" s="5">
         <f t="shared" si="4"/>
         <v>42758</v>
       </c>
@@ -32023,7 +32879,7 @@
       </c>
     </row>
     <row r="296" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A296" s="6">
+      <c r="A296" s="5">
         <f t="shared" si="4"/>
         <v>42759</v>
       </c>
@@ -32122,7 +32978,7 @@
       </c>
     </row>
     <row r="297" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A297" s="6">
+      <c r="A297" s="5">
         <f t="shared" si="4"/>
         <v>42760</v>
       </c>
@@ -32221,7 +33077,7 @@
       </c>
     </row>
     <row r="298" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A298" s="6">
+      <c r="A298" s="5">
         <f t="shared" si="4"/>
         <v>42761</v>
       </c>
@@ -32320,7 +33176,7 @@
       </c>
     </row>
     <row r="299" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A299" s="6">
+      <c r="A299" s="5">
         <f t="shared" si="4"/>
         <v>42762</v>
       </c>
@@ -32419,7 +33275,7 @@
       </c>
     </row>
     <row r="300" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A300" s="6">
+      <c r="A300" s="5">
         <f t="shared" si="4"/>
         <v>42767</v>
       </c>
@@ -32518,7 +33374,7 @@
       </c>
     </row>
     <row r="301" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A301" s="6">
+      <c r="A301" s="5">
         <f t="shared" si="4"/>
         <v>42768</v>
       </c>
@@ -32617,7 +33473,7 @@
       </c>
     </row>
     <row r="302" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A302" s="6">
+      <c r="A302" s="5">
         <f t="shared" si="4"/>
         <v>42769</v>
       </c>
@@ -32716,7 +33572,7 @@
       </c>
     </row>
     <row r="303" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A303" s="6">
+      <c r="A303" s="5">
         <f t="shared" si="4"/>
         <v>42770</v>
       </c>
@@ -32815,7 +33671,7 @@
       </c>
     </row>
     <row r="304" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A304" s="6">
+      <c r="A304" s="5">
         <f t="shared" si="4"/>
         <v>42771</v>
       </c>
@@ -32914,7 +33770,7 @@
       </c>
     </row>
     <row r="305" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A305" s="6">
+      <c r="A305" s="5">
         <f t="shared" si="4"/>
         <v>42773</v>
       </c>
@@ -33013,7 +33869,7 @@
       </c>
     </row>
     <row r="306" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A306" s="6">
+      <c r="A306" s="5">
         <f t="shared" si="4"/>
         <v>42774</v>
       </c>
@@ -33112,7 +33968,7 @@
       </c>
     </row>
     <row r="307" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A307" s="6">
+      <c r="A307" s="5">
         <f t="shared" si="4"/>
         <v>42775</v>
       </c>
@@ -33211,7 +34067,7 @@
       </c>
     </row>
     <row r="308" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A308" s="6">
+      <c r="A308" s="5">
         <f t="shared" si="4"/>
         <v>42776</v>
       </c>
@@ -33310,7 +34166,7 @@
       </c>
     </row>
     <row r="309" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A309" s="6">
+      <c r="A309" s="5">
         <f t="shared" si="4"/>
         <v>42777</v>
       </c>
@@ -33409,7 +34265,7 @@
       </c>
     </row>
     <row r="310" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A310" s="6">
+      <c r="A310" s="5">
         <f t="shared" si="4"/>
         <v>42778</v>
       </c>
@@ -33508,7 +34364,7 @@
       </c>
     </row>
     <row r="311" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A311" s="6">
+      <c r="A311" s="5">
         <f t="shared" si="4"/>
         <v>42779</v>
       </c>
@@ -33607,7 +34463,7 @@
       </c>
     </row>
     <row r="312" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A312" s="6">
+      <c r="A312" s="5">
         <f t="shared" si="4"/>
         <v>42780</v>
       </c>
@@ -33706,7 +34562,7 @@
       </c>
     </row>
     <row r="313" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A313" s="6">
+      <c r="A313" s="5">
         <f t="shared" si="4"/>
         <v>42781</v>
       </c>
@@ -33805,7 +34661,7 @@
       </c>
     </row>
     <row r="314" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A314" s="6">
+      <c r="A314" s="5">
         <f t="shared" si="4"/>
         <v>42782</v>
       </c>
@@ -33904,7 +34760,7 @@
       </c>
     </row>
     <row r="315" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A315" s="6">
+      <c r="A315" s="5">
         <f t="shared" si="4"/>
         <v>42783</v>
       </c>
@@ -34003,7 +34859,7 @@
       </c>
     </row>
     <row r="316" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A316" s="6">
+      <c r="A316" s="5">
         <f t="shared" si="4"/>
         <v>42784</v>
       </c>
@@ -34102,7 +34958,7 @@
       </c>
     </row>
     <row r="317" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A317" s="6">
+      <c r="A317" s="5">
         <f t="shared" si="4"/>
         <v>42785</v>
       </c>
@@ -34201,7 +35057,7 @@
       </c>
     </row>
     <row r="318" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A318" s="6">
+      <c r="A318" s="5">
         <f t="shared" si="4"/>
         <v>42786</v>
       </c>
@@ -34300,7 +35156,7 @@
       </c>
     </row>
     <row r="319" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A319" s="6">
+      <c r="A319" s="5">
         <f t="shared" si="4"/>
         <v>42787</v>
       </c>
@@ -34399,7 +35255,7 @@
       </c>
     </row>
     <row r="320" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A320" s="6">
+      <c r="A320" s="5">
         <f t="shared" si="4"/>
         <v>42788</v>
       </c>
@@ -34498,7 +35354,7 @@
       </c>
     </row>
     <row r="321" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A321" s="6">
+      <c r="A321" s="5">
         <f t="shared" si="4"/>
         <v>42789</v>
       </c>
@@ -34597,7 +35453,7 @@
       </c>
     </row>
     <row r="322" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A322" s="6">
+      <c r="A322" s="5">
         <f t="shared" si="4"/>
         <v>42790</v>
       </c>
@@ -34696,7 +35552,7 @@
       </c>
     </row>
     <row r="323" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A323" s="6">
+      <c r="A323" s="5">
         <f t="shared" ref="A323:A367" si="5">DATE(YEAR(B323)-(3915-2015),MONTH(B323),DAY(B323))</f>
         <v>42791</v>
       </c>
@@ -34795,7 +35651,7 @@
       </c>
     </row>
     <row r="324" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A324" s="6">
+      <c r="A324" s="5">
         <f t="shared" si="5"/>
         <v>42792</v>
       </c>
@@ -34894,7 +35750,7 @@
       </c>
     </row>
     <row r="325" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A325" s="6">
+      <c r="A325" s="5">
         <f t="shared" si="5"/>
         <v>42793</v>
       </c>
@@ -34993,7 +35849,7 @@
       </c>
     </row>
     <row r="326" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A326" s="6">
+      <c r="A326" s="5">
         <f t="shared" si="5"/>
         <v>42794</v>
       </c>
@@ -35092,7 +35948,7 @@
       </c>
     </row>
     <row r="327" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A327" s="6">
+      <c r="A327" s="5">
         <f t="shared" si="5"/>
         <v>42795</v>
       </c>
@@ -35191,7 +36047,7 @@
       </c>
     </row>
     <row r="328" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A328" s="6">
+      <c r="A328" s="5">
         <f t="shared" si="5"/>
         <v>42796</v>
       </c>
@@ -35290,7 +36146,7 @@
       </c>
     </row>
     <row r="329" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A329" s="6">
+      <c r="A329" s="5">
         <f t="shared" si="5"/>
         <v>42797</v>
       </c>
@@ -35389,7 +36245,7 @@
       </c>
     </row>
     <row r="330" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A330" s="6">
+      <c r="A330" s="5">
         <f t="shared" si="5"/>
         <v>42798</v>
       </c>
@@ -35488,7 +36344,7 @@
       </c>
     </row>
     <row r="331" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A331" s="6">
+      <c r="A331" s="5">
         <f t="shared" si="5"/>
         <v>42799</v>
       </c>
@@ -35587,7 +36443,7 @@
       </c>
     </row>
     <row r="332" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A332" s="6">
+      <c r="A332" s="5">
         <f t="shared" si="5"/>
         <v>42800</v>
       </c>
@@ -35686,7 +36542,7 @@
       </c>
     </row>
     <row r="333" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A333" s="6">
+      <c r="A333" s="5">
         <f t="shared" si="5"/>
         <v>42801</v>
       </c>
@@ -35785,7 +36641,7 @@
       </c>
     </row>
     <row r="334" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A334" s="6">
+      <c r="A334" s="5">
         <f t="shared" si="5"/>
         <v>42802</v>
       </c>
@@ -35884,7 +36740,7 @@
       </c>
     </row>
     <row r="335" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A335" s="6">
+      <c r="A335" s="5">
         <f t="shared" si="5"/>
         <v>42803</v>
       </c>
@@ -35983,7 +36839,7 @@
       </c>
     </row>
     <row r="336" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A336" s="6">
+      <c r="A336" s="5">
         <f t="shared" si="5"/>
         <v>42804</v>
       </c>
@@ -36082,7 +36938,7 @@
       </c>
     </row>
     <row r="337" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A337" s="6">
+      <c r="A337" s="5">
         <f t="shared" si="5"/>
         <v>42805</v>
       </c>
@@ -36181,7 +37037,7 @@
       </c>
     </row>
     <row r="338" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A338" s="6">
+      <c r="A338" s="5">
         <f t="shared" si="5"/>
         <v>42806</v>
       </c>
@@ -36280,7 +37136,7 @@
       </c>
     </row>
     <row r="339" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A339" s="6">
+      <c r="A339" s="5">
         <f t="shared" si="5"/>
         <v>42807</v>
       </c>
@@ -36379,7 +37235,7 @@
       </c>
     </row>
     <row r="340" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A340" s="6">
+      <c r="A340" s="5">
         <f t="shared" si="5"/>
         <v>42808</v>
       </c>
@@ -36478,7 +37334,7 @@
       </c>
     </row>
     <row r="341" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A341" s="6">
+      <c r="A341" s="5">
         <f t="shared" si="5"/>
         <v>42809</v>
       </c>
@@ -36577,7 +37433,7 @@
       </c>
     </row>
     <row r="342" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A342" s="6">
+      <c r="A342" s="5">
         <f t="shared" si="5"/>
         <v>42810</v>
       </c>
@@ -36676,7 +37532,7 @@
       </c>
     </row>
     <row r="343" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A343" s="6">
+      <c r="A343" s="5">
         <f t="shared" si="5"/>
         <v>42811</v>
       </c>
@@ -36775,7 +37631,7 @@
       </c>
     </row>
     <row r="344" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A344" s="6">
+      <c r="A344" s="5">
         <f t="shared" si="5"/>
         <v>42812</v>
       </c>
@@ -36874,7 +37730,7 @@
       </c>
     </row>
     <row r="345" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A345" s="6">
+      <c r="A345" s="5">
         <f t="shared" si="5"/>
         <v>42813</v>
       </c>
@@ -36973,7 +37829,7 @@
       </c>
     </row>
     <row r="346" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A346" s="6">
+      <c r="A346" s="5">
         <f t="shared" si="5"/>
         <v>42814</v>
       </c>
@@ -37072,7 +37928,7 @@
       </c>
     </row>
     <row r="347" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A347" s="6">
+      <c r="A347" s="5">
         <f t="shared" si="5"/>
         <v>42815</v>
       </c>
@@ -37171,7 +38027,7 @@
       </c>
     </row>
     <row r="348" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A348" s="6">
+      <c r="A348" s="5">
         <f t="shared" si="5"/>
         <v>42816</v>
       </c>
@@ -37270,7 +38126,7 @@
       </c>
     </row>
     <row r="349" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A349" s="6">
+      <c r="A349" s="5">
         <f t="shared" si="5"/>
         <v>42817</v>
       </c>
@@ -37369,7 +38225,7 @@
       </c>
     </row>
     <row r="350" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A350" s="6">
+      <c r="A350" s="5">
         <f t="shared" si="5"/>
         <v>42818</v>
       </c>
@@ -37468,7 +38324,7 @@
       </c>
     </row>
     <row r="351" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A351" s="6">
+      <c r="A351" s="5">
         <f t="shared" si="5"/>
         <v>42819</v>
       </c>
@@ -37567,7 +38423,7 @@
       </c>
     </row>
     <row r="352" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A352" s="6">
+      <c r="A352" s="5">
         <f t="shared" si="5"/>
         <v>42820</v>
       </c>
@@ -37666,7 +38522,7 @@
       </c>
     </row>
     <row r="353" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A353" s="6">
+      <c r="A353" s="5">
         <f t="shared" si="5"/>
         <v>42821</v>
       </c>
@@ -37765,7 +38621,7 @@
       </c>
     </row>
     <row r="354" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A354" s="6">
+      <c r="A354" s="5">
         <f t="shared" si="5"/>
         <v>42822</v>
       </c>
@@ -37864,7 +38720,7 @@
       </c>
     </row>
     <row r="355" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A355" s="6">
+      <c r="A355" s="5">
         <f t="shared" si="5"/>
         <v>42823</v>
       </c>
@@ -37963,7 +38819,7 @@
       </c>
     </row>
     <row r="356" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A356" s="6">
+      <c r="A356" s="5">
         <f t="shared" si="5"/>
         <v>42824</v>
       </c>
@@ -38062,7 +38918,7 @@
       </c>
     </row>
     <row r="357" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A357" s="6">
+      <c r="A357" s="5">
         <f t="shared" si="5"/>
         <v>42825</v>
       </c>
@@ -38161,7 +39017,7 @@
       </c>
     </row>
     <row r="358" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A358" s="6">
+      <c r="A358" s="5">
         <f t="shared" si="5"/>
         <v>42826</v>
       </c>
@@ -38260,7 +39116,7 @@
       </c>
     </row>
     <row r="359" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A359" s="6">
+      <c r="A359" s="5">
         <f t="shared" si="5"/>
         <v>42827</v>
       </c>
@@ -38359,7 +39215,7 @@
       </c>
     </row>
     <row r="360" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A360" s="6">
+      <c r="A360" s="5">
         <f t="shared" si="5"/>
         <v>42828</v>
       </c>
@@ -38458,7 +39314,7 @@
       </c>
     </row>
     <row r="361" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A361" s="6">
+      <c r="A361" s="5">
         <f t="shared" si="5"/>
         <v>42829</v>
       </c>
@@ -38557,7 +39413,7 @@
       </c>
     </row>
     <row r="362" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A362" s="6">
+      <c r="A362" s="5">
         <f t="shared" si="5"/>
         <v>42830</v>
       </c>
@@ -38656,7 +39512,7 @@
       </c>
     </row>
     <row r="363" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A363" s="6">
+      <c r="A363" s="5">
         <f t="shared" si="5"/>
         <v>42831</v>
       </c>
@@ -38755,7 +39611,7 @@
       </c>
     </row>
     <row r="364" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A364" s="6">
+      <c r="A364" s="5">
         <f t="shared" si="5"/>
         <v>42832</v>
       </c>
@@ -38854,7 +39710,7 @@
       </c>
     </row>
     <row r="365" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A365" s="6">
+      <c r="A365" s="5">
         <f t="shared" si="5"/>
         <v>42833</v>
       </c>
@@ -38953,7 +39809,7 @@
       </c>
     </row>
     <row r="366" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A366" s="6">
+      <c r="A366" s="5">
         <f t="shared" si="5"/>
         <v>42834</v>
       </c>
@@ -39052,7 +39908,7 @@
       </c>
     </row>
     <row r="367" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A367" s="6">
+      <c r="A367" s="5">
         <f t="shared" si="5"/>
         <v>42835</v>
       </c>
@@ -39162,7 +40018,7 @@
   </sheetPr>
   <dimension ref="A1:AF367"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A60" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -39173,7 +40029,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -39301,7 +40157,7 @@
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <f>DATE(YEAR(B2)-(3915-2015),MONTH(B2),DAY(B2))</f>
         <v>42284</v>
       </c>
@@ -39400,7 +40256,7 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <f t="shared" ref="A3:A66" si="0">DATE(YEAR(B3)-(3915-2015),MONTH(B3),DAY(B3))</f>
         <v>42285</v>
       </c>
@@ -39499,7 +40355,7 @@
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>42286</v>
       </c>
@@ -39598,7 +40454,7 @@
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>42287</v>
       </c>
@@ -39697,7 +40553,7 @@
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>42288</v>
       </c>
@@ -39796,7 +40652,7 @@
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>42289</v>
       </c>
@@ -39895,7 +40751,7 @@
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>42290</v>
       </c>
@@ -39994,7 +40850,7 @@
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>42291</v>
       </c>
@@ -40093,7 +40949,7 @@
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>42292</v>
       </c>
@@ -40192,7 +41048,7 @@
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>42293</v>
       </c>
@@ -40291,7 +41147,7 @@
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>42294</v>
       </c>
@@ -40390,7 +41246,7 @@
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>42295</v>
       </c>
@@ -40489,7 +41345,7 @@
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>42296</v>
       </c>
@@ -40588,7 +41444,7 @@
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>42297</v>
       </c>
@@ -40687,7 +41543,7 @@
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>42298</v>
       </c>
@@ -40786,7 +41642,7 @@
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>42299</v>
       </c>
@@ -40885,7 +41741,7 @@
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>42300</v>
       </c>
@@ -40984,7 +41840,7 @@
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>42301</v>
       </c>
@@ -41083,7 +41939,7 @@
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>42302</v>
       </c>
@@ -41182,7 +42038,7 @@
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>42303</v>
       </c>
@@ -41281,7 +42137,7 @@
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <f t="shared" si="0"/>
         <v>42304</v>
       </c>
@@ -41380,7 +42236,7 @@
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <f t="shared" si="0"/>
         <v>42305</v>
       </c>
@@ -41479,7 +42335,7 @@
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <f t="shared" si="0"/>
         <v>42306</v>
       </c>
@@ -41578,7 +42434,7 @@
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <f t="shared" si="0"/>
         <v>42307</v>
       </c>
@@ -41677,7 +42533,7 @@
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <f t="shared" si="0"/>
         <v>42308</v>
       </c>
@@ -41776,7 +42632,7 @@
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <f t="shared" si="0"/>
         <v>42309</v>
       </c>
@@ -41875,7 +42731,7 @@
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <f t="shared" si="0"/>
         <v>42310</v>
       </c>
@@ -41974,7 +42830,7 @@
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <f t="shared" si="0"/>
         <v>42311</v>
       </c>
@@ -42073,7 +42929,7 @@
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <f t="shared" si="0"/>
         <v>42312</v>
       </c>
@@ -42172,7 +43028,7 @@
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <f t="shared" si="0"/>
         <v>42313</v>
       </c>
@@ -42271,7 +43127,7 @@
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <f t="shared" si="0"/>
         <v>42314</v>
       </c>
@@ -42370,7 +43226,7 @@
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A33" s="6">
+      <c r="A33" s="5">
         <f t="shared" si="0"/>
         <v>42315</v>
       </c>
@@ -42469,7 +43325,7 @@
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <f t="shared" si="0"/>
         <v>42316</v>
       </c>
@@ -42568,7 +43424,7 @@
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A35" s="6">
+      <c r="A35" s="5">
         <f t="shared" si="0"/>
         <v>42317</v>
       </c>
@@ -42667,7 +43523,7 @@
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
+      <c r="A36" s="5">
         <f t="shared" si="0"/>
         <v>42318</v>
       </c>
@@ -42766,7 +43622,7 @@
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A37" s="6">
+      <c r="A37" s="5">
         <f t="shared" si="0"/>
         <v>42319</v>
       </c>
@@ -42865,7 +43721,7 @@
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A38" s="6">
+      <c r="A38" s="5">
         <f t="shared" si="0"/>
         <v>42320</v>
       </c>
@@ -42964,7 +43820,7 @@
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A39" s="6">
+      <c r="A39" s="5">
         <f t="shared" si="0"/>
         <v>42321</v>
       </c>
@@ -43063,7 +43919,7 @@
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A40" s="6">
+      <c r="A40" s="5">
         <f t="shared" si="0"/>
         <v>42322</v>
       </c>
@@ -43162,7 +44018,7 @@
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A41" s="6">
+      <c r="A41" s="5">
         <f t="shared" si="0"/>
         <v>42323</v>
       </c>
@@ -43261,7 +44117,7 @@
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A42" s="6">
+      <c r="A42" s="5">
         <f t="shared" si="0"/>
         <v>42324</v>
       </c>
@@ -43360,7 +44216,7 @@
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A43" s="6">
+      <c r="A43" s="5">
         <f t="shared" si="0"/>
         <v>42325</v>
       </c>
@@ -43459,7 +44315,7 @@
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A44" s="6">
+      <c r="A44" s="5">
         <f t="shared" si="0"/>
         <v>42326</v>
       </c>
@@ -43558,7 +44414,7 @@
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A45" s="6">
+      <c r="A45" s="5">
         <f t="shared" si="0"/>
         <v>42327</v>
       </c>
@@ -43657,7 +44513,7 @@
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A46" s="6">
+      <c r="A46" s="5">
         <f t="shared" si="0"/>
         <v>42328</v>
       </c>
@@ -43756,7 +44612,7 @@
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A47" s="6">
+      <c r="A47" s="5">
         <f t="shared" si="0"/>
         <v>42329</v>
       </c>
@@ -43855,7 +44711,7 @@
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A48" s="6">
+      <c r="A48" s="5">
         <f t="shared" si="0"/>
         <v>42330</v>
       </c>
@@ -43954,7 +44810,7 @@
       </c>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A49" s="6">
+      <c r="A49" s="5">
         <f t="shared" si="0"/>
         <v>42331</v>
       </c>
@@ -44053,7 +44909,7 @@
       </c>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A50" s="6">
+      <c r="A50" s="5">
         <f t="shared" si="0"/>
         <v>42332</v>
       </c>
@@ -44152,7 +45008,7 @@
       </c>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A51" s="6">
+      <c r="A51" s="5">
         <f t="shared" si="0"/>
         <v>42333</v>
       </c>
@@ -44251,7 +45107,7 @@
       </c>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A52" s="6">
+      <c r="A52" s="5">
         <f t="shared" si="0"/>
         <v>42335</v>
       </c>
@@ -44350,7 +45206,7 @@
       </c>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A53" s="6">
+      <c r="A53" s="5">
         <f t="shared" si="0"/>
         <v>42336</v>
       </c>
@@ -44449,7 +45305,7 @@
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A54" s="6">
+      <c r="A54" s="5">
         <f t="shared" si="0"/>
         <v>42337</v>
       </c>
@@ -44548,7 +45404,7 @@
       </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A55" s="6">
+      <c r="A55" s="5">
         <f t="shared" si="0"/>
         <v>42338</v>
       </c>
@@ -44647,7 +45503,7 @@
       </c>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A56" s="6">
+      <c r="A56" s="5">
         <f t="shared" si="0"/>
         <v>42339</v>
       </c>
@@ -44746,7 +45602,7 @@
       </c>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A57" s="6">
+      <c r="A57" s="5">
         <f t="shared" si="0"/>
         <v>42340</v>
       </c>
@@ -44845,7 +45701,7 @@
       </c>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A58" s="6">
+      <c r="A58" s="5">
         <f t="shared" si="0"/>
         <v>42341</v>
       </c>
@@ -44944,7 +45800,7 @@
       </c>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A59" s="6">
+      <c r="A59" s="5">
         <f t="shared" si="0"/>
         <v>42342</v>
       </c>
@@ -45043,7 +45899,7 @@
       </c>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A60" s="6">
+      <c r="A60" s="5">
         <f t="shared" si="0"/>
         <v>42343</v>
       </c>
@@ -45142,7 +45998,7 @@
       </c>
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A61" s="6">
+      <c r="A61" s="5">
         <f t="shared" si="0"/>
         <v>42344</v>
       </c>
@@ -45241,7 +46097,7 @@
       </c>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A62" s="6">
+      <c r="A62" s="5">
         <f t="shared" si="0"/>
         <v>42345</v>
       </c>
@@ -45340,7 +46196,7 @@
       </c>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A63" s="6">
+      <c r="A63" s="5">
         <f t="shared" si="0"/>
         <v>42346</v>
       </c>
@@ -45439,7 +46295,7 @@
       </c>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A64" s="6">
+      <c r="A64" s="5">
         <f t="shared" si="0"/>
         <v>42347</v>
       </c>
@@ -45538,7 +46394,7 @@
       </c>
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A65" s="6">
+      <c r="A65" s="5">
         <f t="shared" si="0"/>
         <v>42348</v>
       </c>
@@ -45637,7 +46493,7 @@
       </c>
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A66" s="6">
+      <c r="A66" s="5">
         <f t="shared" si="0"/>
         <v>42349</v>
       </c>
@@ -45736,7 +46592,7 @@
       </c>
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A67" s="6">
+      <c r="A67" s="5">
         <f t="shared" ref="A67:A130" si="1">DATE(YEAR(B67)-(3915-2015),MONTH(B67),DAY(B67))</f>
         <v>42350</v>
       </c>
@@ -45835,7 +46691,7 @@
       </c>
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A68" s="6">
+      <c r="A68" s="5">
         <f t="shared" si="1"/>
         <v>42351</v>
       </c>
@@ -45934,7 +46790,7 @@
       </c>
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A69" s="6">
+      <c r="A69" s="5">
         <f t="shared" si="1"/>
         <v>42352</v>
       </c>
@@ -46033,7 +46889,7 @@
       </c>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A70" s="6">
+      <c r="A70" s="5">
         <f t="shared" si="1"/>
         <v>42353</v>
       </c>
@@ -46132,7 +46988,7 @@
       </c>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A71" s="6">
+      <c r="A71" s="5">
         <f t="shared" si="1"/>
         <v>42354</v>
       </c>
@@ -46231,7 +47087,7 @@
       </c>
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A72" s="6">
+      <c r="A72" s="5">
         <f t="shared" si="1"/>
         <v>42355</v>
       </c>
@@ -46330,7 +47186,7 @@
       </c>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A73" s="6">
+      <c r="A73" s="5">
         <f t="shared" si="1"/>
         <v>42356</v>
       </c>
@@ -46429,7 +47285,7 @@
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A74" s="6">
+      <c r="A74" s="5">
         <f t="shared" si="1"/>
         <v>42357</v>
       </c>
@@ -46528,7 +47384,7 @@
       </c>
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A75" s="6">
+      <c r="A75" s="5">
         <f t="shared" si="1"/>
         <v>42358</v>
       </c>
@@ -46627,7 +47483,7 @@
       </c>
     </row>
     <row r="76" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A76" s="6">
+      <c r="A76" s="5">
         <f t="shared" si="1"/>
         <v>42359</v>
       </c>
@@ -46726,7 +47582,7 @@
       </c>
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A77" s="6">
+      <c r="A77" s="5">
         <f t="shared" si="1"/>
         <v>42360</v>
       </c>
@@ -46825,7 +47681,7 @@
       </c>
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A78" s="6">
+      <c r="A78" s="5">
         <f t="shared" si="1"/>
         <v>42364</v>
       </c>
@@ -46924,7 +47780,7 @@
       </c>
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A79" s="6">
+      <c r="A79" s="5">
         <f t="shared" si="1"/>
         <v>42365</v>
       </c>
@@ -47023,7 +47879,7 @@
       </c>
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A80" s="6">
+      <c r="A80" s="5">
         <f t="shared" si="1"/>
         <v>42366</v>
       </c>
@@ -47122,7 +47978,7 @@
       </c>
     </row>
     <row r="81" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A81" s="6">
+      <c r="A81" s="5">
         <f t="shared" si="1"/>
         <v>42367</v>
       </c>
@@ -47221,7 +48077,7 @@
       </c>
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A82" s="6">
+      <c r="A82" s="5">
         <f t="shared" si="1"/>
         <v>42368</v>
       </c>
@@ -47320,7 +48176,7 @@
       </c>
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A83" s="6">
+      <c r="A83" s="5">
         <f t="shared" si="1"/>
         <v>42369</v>
       </c>
@@ -47419,7 +48275,7 @@
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A84" s="6">
+      <c r="A84" s="5">
         <f t="shared" si="1"/>
         <v>42370</v>
       </c>
@@ -47518,7 +48374,7 @@
       </c>
     </row>
     <row r="85" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A85" s="6">
+      <c r="A85" s="5">
         <f t="shared" si="1"/>
         <v>42371</v>
       </c>
@@ -47617,7 +48473,7 @@
       </c>
     </row>
     <row r="86" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A86" s="6">
+      <c r="A86" s="5">
         <f t="shared" si="1"/>
         <v>42372</v>
       </c>
@@ -47716,7 +48572,7 @@
       </c>
     </row>
     <row r="87" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A87" s="6">
+      <c r="A87" s="5">
         <f t="shared" si="1"/>
         <v>42373</v>
       </c>
@@ -47815,7 +48671,7 @@
       </c>
     </row>
     <row r="88" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A88" s="6">
+      <c r="A88" s="5">
         <f t="shared" si="1"/>
         <v>42374</v>
       </c>
@@ -47914,7 +48770,7 @@
       </c>
     </row>
     <row r="89" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A89" s="6">
+      <c r="A89" s="5">
         <f t="shared" si="1"/>
         <v>42375</v>
       </c>
@@ -48013,7 +48869,7 @@
       </c>
     </row>
     <row r="90" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A90" s="6">
+      <c r="A90" s="5">
         <f t="shared" si="1"/>
         <v>42376</v>
       </c>
@@ -48112,7 +48968,7 @@
       </c>
     </row>
     <row r="91" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A91" s="6">
+      <c r="A91" s="5">
         <f t="shared" si="1"/>
         <v>42377</v>
       </c>
@@ -48211,7 +49067,7 @@
       </c>
     </row>
     <row r="92" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A92" s="6">
+      <c r="A92" s="5">
         <f t="shared" si="1"/>
         <v>42378</v>
       </c>
@@ -48310,7 +49166,7 @@
       </c>
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A93" s="6">
+      <c r="A93" s="5">
         <f t="shared" si="1"/>
         <v>42379</v>
       </c>
@@ -48409,7 +49265,7 @@
       </c>
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A94" s="6">
+      <c r="A94" s="5">
         <f t="shared" si="1"/>
         <v>42380</v>
       </c>
@@ -48508,7 +49364,7 @@
       </c>
     </row>
     <row r="95" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A95" s="6">
+      <c r="A95" s="5">
         <f t="shared" si="1"/>
         <v>42381</v>
       </c>
@@ -48607,7 +49463,7 @@
       </c>
     </row>
     <row r="96" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A96" s="6">
+      <c r="A96" s="5">
         <f t="shared" si="1"/>
         <v>42382</v>
       </c>
@@ -48706,7 +49562,7 @@
       </c>
     </row>
     <row r="97" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A97" s="6">
+      <c r="A97" s="5">
         <f t="shared" si="1"/>
         <v>42383</v>
       </c>
@@ -48805,7 +49661,7 @@
       </c>
     </row>
     <row r="98" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A98" s="6">
+      <c r="A98" s="5">
         <f t="shared" si="1"/>
         <v>42384</v>
       </c>
@@ -48904,7 +49760,7 @@
       </c>
     </row>
     <row r="99" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A99" s="6">
+      <c r="A99" s="5">
         <f t="shared" si="1"/>
         <v>42385</v>
       </c>
@@ -49003,7 +49859,7 @@
       </c>
     </row>
     <row r="100" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A100" s="6">
+      <c r="A100" s="5">
         <f t="shared" si="1"/>
         <v>42386</v>
       </c>
@@ -49102,7 +49958,7 @@
       </c>
     </row>
     <row r="101" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A101" s="6">
+      <c r="A101" s="5">
         <f t="shared" si="1"/>
         <v>42387</v>
       </c>
@@ -49201,7 +50057,7 @@
       </c>
     </row>
     <row r="102" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A102" s="6">
+      <c r="A102" s="5">
         <f t="shared" si="1"/>
         <v>42388</v>
       </c>
@@ -49300,7 +50156,7 @@
       </c>
     </row>
     <row r="103" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A103" s="6">
+      <c r="A103" s="5">
         <f t="shared" si="1"/>
         <v>42389</v>
       </c>
@@ -49399,7 +50255,7 @@
       </c>
     </row>
     <row r="104" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A104" s="6">
+      <c r="A104" s="5">
         <f t="shared" si="1"/>
         <v>42390</v>
       </c>
@@ -49498,7 +50354,7 @@
       </c>
     </row>
     <row r="105" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A105" s="6">
+      <c r="A105" s="5">
         <f t="shared" si="1"/>
         <v>42391</v>
       </c>
@@ -49597,7 +50453,7 @@
       </c>
     </row>
     <row r="106" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A106" s="6">
+      <c r="A106" s="5">
         <f t="shared" si="1"/>
         <v>42392</v>
       </c>
@@ -49696,7 +50552,7 @@
       </c>
     </row>
     <row r="107" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A107" s="6">
+      <c r="A107" s="5">
         <f t="shared" si="1"/>
         <v>42393</v>
       </c>
@@ -49795,7 +50651,7 @@
       </c>
     </row>
     <row r="108" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A108" s="6">
+      <c r="A108" s="5">
         <f t="shared" si="1"/>
         <v>42394</v>
       </c>
@@ -49894,7 +50750,7 @@
       </c>
     </row>
     <row r="109" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A109" s="6">
+      <c r="A109" s="5">
         <f t="shared" si="1"/>
         <v>42395</v>
       </c>
@@ -49993,7 +50849,7 @@
       </c>
     </row>
     <row r="110" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A110" s="6">
+      <c r="A110" s="5">
         <f t="shared" si="1"/>
         <v>42396</v>
       </c>
@@ -50092,7 +50948,7 @@
       </c>
     </row>
     <row r="111" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A111" s="6">
+      <c r="A111" s="5">
         <f t="shared" si="1"/>
         <v>42402</v>
       </c>
@@ -50191,7 +51047,7 @@
       </c>
     </row>
     <row r="112" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A112" s="6">
+      <c r="A112" s="5">
         <f t="shared" si="1"/>
         <v>42403</v>
       </c>
@@ -50290,7 +51146,7 @@
       </c>
     </row>
     <row r="113" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A113" s="6">
+      <c r="A113" s="5">
         <f t="shared" si="1"/>
         <v>42404</v>
       </c>
@@ -50389,7 +51245,7 @@
       </c>
     </row>
     <row r="114" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A114" s="6">
+      <c r="A114" s="5">
         <f t="shared" si="1"/>
         <v>42405</v>
       </c>
@@ -50488,7 +51344,7 @@
       </c>
     </row>
     <row r="115" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A115" s="6">
+      <c r="A115" s="5">
         <f t="shared" si="1"/>
         <v>42406</v>
       </c>
@@ -50587,7 +51443,7 @@
       </c>
     </row>
     <row r="116" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A116" s="6">
+      <c r="A116" s="5">
         <f t="shared" si="1"/>
         <v>42407</v>
       </c>
@@ -50686,7 +51542,7 @@
       </c>
     </row>
     <row r="117" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A117" s="6">
+      <c r="A117" s="5">
         <f t="shared" si="1"/>
         <v>42408</v>
       </c>
@@ -50785,7 +51641,7 @@
       </c>
     </row>
     <row r="118" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A118" s="6">
+      <c r="A118" s="5">
         <f t="shared" si="1"/>
         <v>42409</v>
       </c>
@@ -50884,7 +51740,7 @@
       </c>
     </row>
     <row r="119" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A119" s="6">
+      <c r="A119" s="5">
         <f t="shared" si="1"/>
         <v>42410</v>
       </c>
@@ -50983,7 +51839,7 @@
       </c>
     </row>
     <row r="120" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A120" s="6">
+      <c r="A120" s="5">
         <f t="shared" si="1"/>
         <v>42411</v>
       </c>
@@ -51082,7 +51938,7 @@
       </c>
     </row>
     <row r="121" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A121" s="6">
+      <c r="A121" s="5">
         <f t="shared" si="1"/>
         <v>42412</v>
       </c>
@@ -51181,7 +52037,7 @@
       </c>
     </row>
     <row r="122" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A122" s="6">
+      <c r="A122" s="5">
         <f t="shared" si="1"/>
         <v>42413</v>
       </c>
@@ -51280,7 +52136,7 @@
       </c>
     </row>
     <row r="123" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A123" s="6">
+      <c r="A123" s="5">
         <f t="shared" si="1"/>
         <v>42414</v>
       </c>
@@ -51379,7 +52235,7 @@
       </c>
     </row>
     <row r="124" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A124" s="6">
+      <c r="A124" s="5">
         <f t="shared" si="1"/>
         <v>42415</v>
       </c>
@@ -51478,7 +52334,7 @@
       </c>
     </row>
     <row r="125" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A125" s="6">
+      <c r="A125" s="5">
         <f t="shared" si="1"/>
         <v>42416</v>
       </c>
@@ -51577,7 +52433,7 @@
       </c>
     </row>
     <row r="126" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A126" s="6">
+      <c r="A126" s="5">
         <f t="shared" si="1"/>
         <v>42417</v>
       </c>
@@ -51676,7 +52532,7 @@
       </c>
     </row>
     <row r="127" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A127" s="6">
+      <c r="A127" s="5">
         <f t="shared" si="1"/>
         <v>42418</v>
       </c>
@@ -51775,7 +52631,7 @@
       </c>
     </row>
     <row r="128" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A128" s="6">
+      <c r="A128" s="5">
         <f t="shared" si="1"/>
         <v>42419</v>
       </c>
@@ -51874,7 +52730,7 @@
       </c>
     </row>
     <row r="129" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A129" s="6">
+      <c r="A129" s="5">
         <f t="shared" si="1"/>
         <v>42420</v>
       </c>
@@ -51973,7 +52829,7 @@
       </c>
     </row>
     <row r="130" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A130" s="6">
+      <c r="A130" s="5">
         <f t="shared" si="1"/>
         <v>42421</v>
       </c>
@@ -52072,7 +52928,7 @@
       </c>
     </row>
     <row r="131" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A131" s="6">
+      <c r="A131" s="5">
         <f t="shared" ref="A131:A194" si="2">DATE(YEAR(B131)-(3915-2015),MONTH(B131),DAY(B131))</f>
         <v>42422</v>
       </c>
@@ -52171,7 +53027,7 @@
       </c>
     </row>
     <row r="132" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A132" s="6">
+      <c r="A132" s="5">
         <f t="shared" si="2"/>
         <v>42423</v>
       </c>
@@ -52270,7 +53126,7 @@
       </c>
     </row>
     <row r="133" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A133" s="6">
+      <c r="A133" s="5">
         <f t="shared" si="2"/>
         <v>42424</v>
       </c>
@@ -52369,7 +53225,7 @@
       </c>
     </row>
     <row r="134" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A134" s="6">
+      <c r="A134" s="5">
         <f t="shared" si="2"/>
         <v>42425</v>
       </c>
@@ -52468,7 +53324,7 @@
       </c>
     </row>
     <row r="135" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A135" s="6">
+      <c r="A135" s="5">
         <f t="shared" si="2"/>
         <v>42426</v>
       </c>
@@ -52567,7 +53423,7 @@
       </c>
     </row>
     <row r="136" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A136" s="6">
+      <c r="A136" s="5">
         <f t="shared" si="2"/>
         <v>42427</v>
       </c>
@@ -52666,7 +53522,7 @@
       </c>
     </row>
     <row r="137" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A137" s="6">
+      <c r="A137" s="5">
         <f t="shared" si="2"/>
         <v>42428</v>
       </c>
@@ -52765,7 +53621,7 @@
       </c>
     </row>
     <row r="138" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A138" s="6">
+      <c r="A138" s="5">
         <f t="shared" si="2"/>
         <v>42429</v>
       </c>
@@ -52864,7 +53720,7 @@
       </c>
     </row>
     <row r="139" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A139" s="6">
+      <c r="A139" s="5">
         <f t="shared" si="2"/>
         <v>42430</v>
       </c>
@@ -52963,7 +53819,7 @@
       </c>
     </row>
     <row r="140" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A140" s="6">
+      <c r="A140" s="5">
         <f t="shared" si="2"/>
         <v>42431</v>
       </c>
@@ -53062,7 +53918,7 @@
       </c>
     </row>
     <row r="141" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A141" s="6">
+      <c r="A141" s="5">
         <f t="shared" si="2"/>
         <v>42432</v>
       </c>
@@ -53161,7 +54017,7 @@
       </c>
     </row>
     <row r="142" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A142" s="6">
+      <c r="A142" s="5">
         <f t="shared" si="2"/>
         <v>42433</v>
       </c>
@@ -53260,7 +54116,7 @@
       </c>
     </row>
     <row r="143" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A143" s="6">
+      <c r="A143" s="5">
         <f t="shared" si="2"/>
         <v>42434</v>
       </c>
@@ -53359,7 +54215,7 @@
       </c>
     </row>
     <row r="144" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A144" s="6">
+      <c r="A144" s="5">
         <f t="shared" si="2"/>
         <v>42435</v>
       </c>
@@ -53458,7 +54314,7 @@
       </c>
     </row>
     <row r="145" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A145" s="6">
+      <c r="A145" s="5">
         <f t="shared" si="2"/>
         <v>42436</v>
       </c>
@@ -53557,7 +54413,7 @@
       </c>
     </row>
     <row r="146" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A146" s="6">
+      <c r="A146" s="5">
         <f t="shared" si="2"/>
         <v>42437</v>
       </c>
@@ -53656,7 +54512,7 @@
       </c>
     </row>
     <row r="147" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A147" s="6">
+      <c r="A147" s="5">
         <f t="shared" si="2"/>
         <v>42438</v>
       </c>
@@ -53755,7 +54611,7 @@
       </c>
     </row>
     <row r="148" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A148" s="6">
+      <c r="A148" s="5">
         <f t="shared" si="2"/>
         <v>42439</v>
       </c>
@@ -53854,7 +54710,7 @@
       </c>
     </row>
     <row r="149" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A149" s="6">
+      <c r="A149" s="5">
         <f t="shared" si="2"/>
         <v>42440</v>
       </c>
@@ -53953,7 +54809,7 @@
       </c>
     </row>
     <row r="150" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A150" s="6">
+      <c r="A150" s="5">
         <f t="shared" si="2"/>
         <v>42441</v>
       </c>
@@ -54052,7 +54908,7 @@
       </c>
     </row>
     <row r="151" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A151" s="6">
+      <c r="A151" s="5">
         <f t="shared" si="2"/>
         <v>42442</v>
       </c>
@@ -54151,7 +55007,7 @@
       </c>
     </row>
     <row r="152" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A152" s="6">
+      <c r="A152" s="5">
         <f t="shared" si="2"/>
         <v>42443</v>
       </c>
@@ -54250,7 +55106,7 @@
       </c>
     </row>
     <row r="153" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A153" s="6">
+      <c r="A153" s="5">
         <f t="shared" si="2"/>
         <v>42444</v>
       </c>
@@ -54349,7 +55205,7 @@
       </c>
     </row>
     <row r="154" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A154" s="6">
+      <c r="A154" s="5">
         <f t="shared" si="2"/>
         <v>42445</v>
       </c>
@@ -54448,7 +55304,7 @@
       </c>
     </row>
     <row r="155" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A155" s="6">
+      <c r="A155" s="5">
         <f t="shared" si="2"/>
         <v>42446</v>
       </c>
@@ -54547,7 +55403,7 @@
       </c>
     </row>
     <row r="156" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A156" s="6">
+      <c r="A156" s="5">
         <f t="shared" si="2"/>
         <v>42447</v>
       </c>
@@ -54646,7 +55502,7 @@
       </c>
     </row>
     <row r="157" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A157" s="6">
+      <c r="A157" s="5">
         <f t="shared" si="2"/>
         <v>42448</v>
       </c>
@@ -54745,7 +55601,7 @@
       </c>
     </row>
     <row r="158" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A158" s="6">
+      <c r="A158" s="5">
         <f t="shared" si="2"/>
         <v>42449</v>
       </c>
@@ -54844,7 +55700,7 @@
       </c>
     </row>
     <row r="159" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A159" s="6">
+      <c r="A159" s="5">
         <f t="shared" si="2"/>
         <v>42450</v>
       </c>
@@ -54943,7 +55799,7 @@
       </c>
     </row>
     <row r="160" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A160" s="6">
+      <c r="A160" s="5">
         <f t="shared" si="2"/>
         <v>42451</v>
       </c>
@@ -55042,7 +55898,7 @@
       </c>
     </row>
     <row r="161" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A161" s="6">
+      <c r="A161" s="5">
         <f t="shared" si="2"/>
         <v>42452</v>
       </c>
@@ -55141,7 +55997,7 @@
       </c>
     </row>
     <row r="162" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A162" s="6">
+      <c r="A162" s="5">
         <f t="shared" si="2"/>
         <v>42453</v>
       </c>
@@ -55240,7 +56096,7 @@
       </c>
     </row>
     <row r="163" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A163" s="6">
+      <c r="A163" s="5">
         <f t="shared" si="2"/>
         <v>42454</v>
       </c>
@@ -55339,7 +56195,7 @@
       </c>
     </row>
     <row r="164" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A164" s="6">
+      <c r="A164" s="5">
         <f t="shared" si="2"/>
         <v>42455</v>
       </c>
@@ -55438,7 +56294,7 @@
       </c>
     </row>
     <row r="165" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A165" s="6">
+      <c r="A165" s="5">
         <f t="shared" si="2"/>
         <v>42456</v>
       </c>
@@ -55537,7 +56393,7 @@
       </c>
     </row>
     <row r="166" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A166" s="6">
+      <c r="A166" s="5">
         <f t="shared" si="2"/>
         <v>42457</v>
       </c>
@@ -55636,7 +56492,7 @@
       </c>
     </row>
     <row r="167" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A167" s="6">
+      <c r="A167" s="5">
         <f t="shared" si="2"/>
         <v>42458</v>
       </c>
@@ -55735,7 +56591,7 @@
       </c>
     </row>
     <row r="168" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A168" s="6">
+      <c r="A168" s="5">
         <f t="shared" si="2"/>
         <v>42459</v>
       </c>
@@ -55834,7 +56690,7 @@
       </c>
     </row>
     <row r="169" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A169" s="6">
+      <c r="A169" s="5">
         <f t="shared" si="2"/>
         <v>42460</v>
       </c>
@@ -55933,7 +56789,7 @@
       </c>
     </row>
     <row r="170" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A170" s="6">
+      <c r="A170" s="5">
         <f t="shared" si="2"/>
         <v>42461</v>
       </c>
@@ -56032,7 +56888,7 @@
       </c>
     </row>
     <row r="171" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A171" s="6">
+      <c r="A171" s="5">
         <f t="shared" si="2"/>
         <v>42462</v>
       </c>
@@ -56131,7 +56987,7 @@
       </c>
     </row>
     <row r="172" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A172" s="6">
+      <c r="A172" s="5">
         <f t="shared" si="2"/>
         <v>42463</v>
       </c>
@@ -56230,7 +57086,7 @@
       </c>
     </row>
     <row r="173" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A173" s="6">
+      <c r="A173" s="5">
         <f t="shared" si="2"/>
         <v>42464</v>
       </c>
@@ -56329,7 +57185,7 @@
       </c>
     </row>
     <row r="174" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A174" s="6">
+      <c r="A174" s="5">
         <f t="shared" si="2"/>
         <v>42465</v>
       </c>
@@ -56428,7 +57284,7 @@
       </c>
     </row>
     <row r="175" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A175" s="6">
+      <c r="A175" s="5">
         <f t="shared" si="2"/>
         <v>42466</v>
       </c>
@@ -56527,7 +57383,7 @@
       </c>
     </row>
     <row r="176" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A176" s="6">
+      <c r="A176" s="5">
         <f t="shared" si="2"/>
         <v>42467</v>
       </c>
@@ -56626,7 +57482,7 @@
       </c>
     </row>
     <row r="177" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A177" s="6">
+      <c r="A177" s="5">
         <f t="shared" si="2"/>
         <v>42468</v>
       </c>
@@ -56725,7 +57581,7 @@
       </c>
     </row>
     <row r="178" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A178" s="6">
+      <c r="A178" s="5">
         <f t="shared" si="2"/>
         <v>42469</v>
       </c>
@@ -56824,7 +57680,7 @@
       </c>
     </row>
     <row r="179" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A179" s="6">
+      <c r="A179" s="5">
         <f t="shared" si="2"/>
         <v>42470</v>
       </c>
@@ -56923,7 +57779,7 @@
       </c>
     </row>
     <row r="180" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A180" s="6">
+      <c r="A180" s="5">
         <f t="shared" si="2"/>
         <v>42638</v>
       </c>
@@ -57022,7 +57878,7 @@
       </c>
     </row>
     <row r="181" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A181" s="6">
+      <c r="A181" s="5">
         <f t="shared" si="2"/>
         <v>42639</v>
       </c>
@@ -57121,7 +57977,7 @@
       </c>
     </row>
     <row r="182" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A182" s="6">
+      <c r="A182" s="5">
         <f t="shared" si="2"/>
         <v>42640</v>
       </c>
@@ -57220,7 +58076,7 @@
       </c>
     </row>
     <row r="183" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A183" s="6">
+      <c r="A183" s="5">
         <f t="shared" si="2"/>
         <v>42641</v>
       </c>
@@ -57319,7 +58175,7 @@
       </c>
     </row>
     <row r="184" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A184" s="6">
+      <c r="A184" s="5">
         <f t="shared" si="2"/>
         <v>42642</v>
       </c>
@@ -57418,7 +58274,7 @@
       </c>
     </row>
     <row r="185" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A185" s="6">
+      <c r="A185" s="5">
         <f t="shared" si="2"/>
         <v>42643</v>
       </c>
@@ -57517,7 +58373,7 @@
       </c>
     </row>
     <row r="186" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A186" s="6">
+      <c r="A186" s="5">
         <f t="shared" si="2"/>
         <v>42644</v>
       </c>
@@ -57616,7 +58472,7 @@
       </c>
     </row>
     <row r="187" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A187" s="6">
+      <c r="A187" s="5">
         <f t="shared" si="2"/>
         <v>42645</v>
       </c>
@@ -57715,7 +58571,7 @@
       </c>
     </row>
     <row r="188" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A188" s="6">
+      <c r="A188" s="5">
         <f t="shared" si="2"/>
         <v>42646</v>
       </c>
@@ -57814,7 +58670,7 @@
       </c>
     </row>
     <row r="189" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A189" s="6">
+      <c r="A189" s="5">
         <f t="shared" si="2"/>
         <v>42647</v>
       </c>
@@ -57913,7 +58769,7 @@
       </c>
     </row>
     <row r="190" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A190" s="6">
+      <c r="A190" s="5">
         <f t="shared" si="2"/>
         <v>42648</v>
       </c>
@@ -58012,7 +58868,7 @@
       </c>
     </row>
     <row r="191" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A191" s="6">
+      <c r="A191" s="5">
         <f t="shared" si="2"/>
         <v>42649</v>
       </c>
@@ -58111,7 +58967,7 @@
       </c>
     </row>
     <row r="192" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A192" s="6">
+      <c r="A192" s="5">
         <f t="shared" si="2"/>
         <v>42650</v>
       </c>
@@ -58210,7 +59066,7 @@
       </c>
     </row>
     <row r="193" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A193" s="6">
+      <c r="A193" s="5">
         <f t="shared" si="2"/>
         <v>42651</v>
       </c>
@@ -58309,7 +59165,7 @@
       </c>
     </row>
     <row r="194" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A194" s="6">
+      <c r="A194" s="5">
         <f t="shared" si="2"/>
         <v>42652</v>
       </c>
@@ -58408,7 +59264,7 @@
       </c>
     </row>
     <row r="195" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A195" s="6">
+      <c r="A195" s="5">
         <f t="shared" ref="A195:A258" si="3">DATE(YEAR(B195)-(3915-2015),MONTH(B195),DAY(B195))</f>
         <v>42655</v>
       </c>
@@ -58507,7 +59363,7 @@
       </c>
     </row>
     <row r="196" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A196" s="6">
+      <c r="A196" s="5">
         <f t="shared" si="3"/>
         <v>42656</v>
       </c>
@@ -58606,7 +59462,7 @@
       </c>
     </row>
     <row r="197" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A197" s="6">
+      <c r="A197" s="5">
         <f t="shared" si="3"/>
         <v>42657</v>
       </c>
@@ -58705,7 +59561,7 @@
       </c>
     </row>
     <row r="198" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A198" s="6">
+      <c r="A198" s="5">
         <f t="shared" si="3"/>
         <v>42658</v>
       </c>
@@ -58804,7 +59660,7 @@
       </c>
     </row>
     <row r="199" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A199" s="6">
+      <c r="A199" s="5">
         <f t="shared" si="3"/>
         <v>42659</v>
       </c>
@@ -58903,7 +59759,7 @@
       </c>
     </row>
     <row r="200" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A200" s="6">
+      <c r="A200" s="5">
         <f t="shared" si="3"/>
         <v>42660</v>
       </c>
@@ -59002,7 +59858,7 @@
       </c>
     </row>
     <row r="201" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A201" s="6">
+      <c r="A201" s="5">
         <f t="shared" si="3"/>
         <v>42661</v>
       </c>
@@ -59101,7 +59957,7 @@
       </c>
     </row>
     <row r="202" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A202" s="6">
+      <c r="A202" s="5">
         <f t="shared" si="3"/>
         <v>42662</v>
       </c>
@@ -59200,7 +60056,7 @@
       </c>
     </row>
     <row r="203" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A203" s="6">
+      <c r="A203" s="5">
         <f t="shared" si="3"/>
         <v>42663</v>
       </c>
@@ -59299,7 +60155,7 @@
       </c>
     </row>
     <row r="204" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A204" s="6">
+      <c r="A204" s="5">
         <f t="shared" si="3"/>
         <v>42664</v>
       </c>
@@ -59398,7 +60254,7 @@
       </c>
     </row>
     <row r="205" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A205" s="6">
+      <c r="A205" s="5">
         <f t="shared" si="3"/>
         <v>42665</v>
       </c>
@@ -59497,7 +60353,7 @@
       </c>
     </row>
     <row r="206" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A206" s="6">
+      <c r="A206" s="5">
         <f t="shared" si="3"/>
         <v>42666</v>
       </c>
@@ -59596,7 +60452,7 @@
       </c>
     </row>
     <row r="207" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A207" s="6">
+      <c r="A207" s="5">
         <f t="shared" si="3"/>
         <v>42667</v>
       </c>
@@ -59695,7 +60551,7 @@
       </c>
     </row>
     <row r="208" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A208" s="6">
+      <c r="A208" s="5">
         <f t="shared" si="3"/>
         <v>42668</v>
       </c>
@@ -59794,7 +60650,7 @@
       </c>
     </row>
     <row r="209" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A209" s="6">
+      <c r="A209" s="5">
         <f t="shared" si="3"/>
         <v>42669</v>
       </c>
@@ -59893,7 +60749,7 @@
       </c>
     </row>
     <row r="210" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A210" s="6">
+      <c r="A210" s="5">
         <f t="shared" si="3"/>
         <v>42670</v>
       </c>
@@ -59992,7 +60848,7 @@
       </c>
     </row>
     <row r="211" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A211" s="6">
+      <c r="A211" s="5">
         <f t="shared" si="3"/>
         <v>42671</v>
       </c>
@@ -60091,7 +60947,7 @@
       </c>
     </row>
     <row r="212" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A212" s="6">
+      <c r="A212" s="5">
         <f t="shared" si="3"/>
         <v>42672</v>
       </c>
@@ -60190,7 +61046,7 @@
       </c>
     </row>
     <row r="213" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A213" s="6">
+      <c r="A213" s="5">
         <f t="shared" si="3"/>
         <v>42673</v>
       </c>
@@ -60289,7 +61145,7 @@
       </c>
     </row>
     <row r="214" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A214" s="6">
+      <c r="A214" s="5">
         <f t="shared" si="3"/>
         <v>42674</v>
       </c>
@@ -60388,7 +61244,7 @@
       </c>
     </row>
     <row r="215" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A215" s="6">
+      <c r="A215" s="5">
         <f t="shared" si="3"/>
         <v>42675</v>
       </c>
@@ -60487,7 +61343,7 @@
       </c>
     </row>
     <row r="216" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A216" s="6">
+      <c r="A216" s="5">
         <f t="shared" si="3"/>
         <v>42676</v>
       </c>
@@ -60586,7 +61442,7 @@
       </c>
     </row>
     <row r="217" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A217" s="6">
+      <c r="A217" s="5">
         <f t="shared" si="3"/>
         <v>42677</v>
       </c>
@@ -60685,7 +61541,7 @@
       </c>
     </row>
     <row r="218" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A218" s="6">
+      <c r="A218" s="5">
         <f t="shared" si="3"/>
         <v>42678</v>
       </c>
@@ -60784,7 +61640,7 @@
       </c>
     </row>
     <row r="219" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A219" s="6">
+      <c r="A219" s="5">
         <f t="shared" si="3"/>
         <v>42679</v>
       </c>
@@ -60883,7 +61739,7 @@
       </c>
     </row>
     <row r="220" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A220" s="6">
+      <c r="A220" s="5">
         <f t="shared" si="3"/>
         <v>42680</v>
       </c>
@@ -60982,7 +61838,7 @@
       </c>
     </row>
     <row r="221" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A221" s="6">
+      <c r="A221" s="5">
         <f t="shared" si="3"/>
         <v>42681</v>
       </c>
@@ -61081,7 +61937,7 @@
       </c>
     </row>
     <row r="222" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A222" s="6">
+      <c r="A222" s="5">
         <f t="shared" si="3"/>
         <v>42682</v>
       </c>
@@ -61180,7 +62036,7 @@
       </c>
     </row>
     <row r="223" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A223" s="6">
+      <c r="A223" s="5">
         <f t="shared" si="3"/>
         <v>42683</v>
       </c>
@@ -61279,7 +62135,7 @@
       </c>
     </row>
     <row r="224" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A224" s="6">
+      <c r="A224" s="5">
         <f t="shared" si="3"/>
         <v>42684</v>
       </c>
@@ -61378,7 +62234,7 @@
       </c>
     </row>
     <row r="225" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A225" s="6">
+      <c r="A225" s="5">
         <f t="shared" si="3"/>
         <v>42685</v>
       </c>
@@ -61477,7 +62333,7 @@
       </c>
     </row>
     <row r="226" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A226" s="6">
+      <c r="A226" s="5">
         <f t="shared" si="3"/>
         <v>42686</v>
       </c>
@@ -61576,7 +62432,7 @@
       </c>
     </row>
     <row r="227" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A227" s="6">
+      <c r="A227" s="5">
         <f t="shared" si="3"/>
         <v>42687</v>
       </c>
@@ -61675,7 +62531,7 @@
       </c>
     </row>
     <row r="228" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A228" s="6">
+      <c r="A228" s="5">
         <f t="shared" si="3"/>
         <v>42688</v>
       </c>
@@ -61774,7 +62630,7 @@
       </c>
     </row>
     <row r="229" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A229" s="6">
+      <c r="A229" s="5">
         <f t="shared" si="3"/>
         <v>42689</v>
       </c>
@@ -61873,7 +62729,7 @@
       </c>
     </row>
     <row r="230" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A230" s="6">
+      <c r="A230" s="5">
         <f t="shared" si="3"/>
         <v>42690</v>
       </c>
@@ -61972,7 +62828,7 @@
       </c>
     </row>
     <row r="231" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A231" s="6">
+      <c r="A231" s="5">
         <f t="shared" si="3"/>
         <v>42691</v>
       </c>
@@ -62071,7 +62927,7 @@
       </c>
     </row>
     <row r="232" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A232" s="6">
+      <c r="A232" s="5">
         <f t="shared" si="3"/>
         <v>42692</v>
       </c>
@@ -62170,7 +63026,7 @@
       </c>
     </row>
     <row r="233" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A233" s="6">
+      <c r="A233" s="5">
         <f t="shared" si="3"/>
         <v>42693</v>
       </c>
@@ -62269,7 +63125,7 @@
       </c>
     </row>
     <row r="234" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A234" s="6">
+      <c r="A234" s="5">
         <f t="shared" si="3"/>
         <v>42694</v>
       </c>
@@ -62368,7 +63224,7 @@
       </c>
     </row>
     <row r="235" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A235" s="6">
+      <c r="A235" s="5">
         <f t="shared" si="3"/>
         <v>42695</v>
       </c>
@@ -62467,7 +63323,7 @@
       </c>
     </row>
     <row r="236" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A236" s="6">
+      <c r="A236" s="5">
         <f t="shared" si="3"/>
         <v>42696</v>
       </c>
@@ -62566,7 +63422,7 @@
       </c>
     </row>
     <row r="237" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A237" s="6">
+      <c r="A237" s="5">
         <f t="shared" si="3"/>
         <v>42697</v>
       </c>
@@ -62665,7 +63521,7 @@
       </c>
     </row>
     <row r="238" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A238" s="6">
+      <c r="A238" s="5">
         <f t="shared" si="3"/>
         <v>42698</v>
       </c>
@@ -62764,7 +63620,7 @@
       </c>
     </row>
     <row r="239" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A239" s="6">
+      <c r="A239" s="5">
         <f t="shared" si="3"/>
         <v>42699</v>
       </c>
@@ -62863,7 +63719,7 @@
       </c>
     </row>
     <row r="240" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A240" s="6">
+      <c r="A240" s="5">
         <f t="shared" si="3"/>
         <v>42700</v>
       </c>
@@ -62962,7 +63818,7 @@
       </c>
     </row>
     <row r="241" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A241" s="6">
+      <c r="A241" s="5">
         <f t="shared" si="3"/>
         <v>42701</v>
       </c>
@@ -63061,7 +63917,7 @@
       </c>
     </row>
     <row r="242" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A242" s="6">
+      <c r="A242" s="5">
         <f t="shared" si="3"/>
         <v>42702</v>
       </c>
@@ -63160,7 +64016,7 @@
       </c>
     </row>
     <row r="243" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A243" s="6">
+      <c r="A243" s="5">
         <f t="shared" si="3"/>
         <v>42703</v>
       </c>
@@ -63259,7 +64115,7 @@
       </c>
     </row>
     <row r="244" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A244" s="6">
+      <c r="A244" s="5">
         <f t="shared" si="3"/>
         <v>42704</v>
       </c>
@@ -63358,7 +64214,7 @@
       </c>
     </row>
     <row r="245" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A245" s="6">
+      <c r="A245" s="5">
         <f t="shared" si="3"/>
         <v>42705</v>
       </c>
@@ -63457,7 +64313,7 @@
       </c>
     </row>
     <row r="246" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A246" s="6">
+      <c r="A246" s="5">
         <f t="shared" si="3"/>
         <v>42706</v>
       </c>
@@ -63556,7 +64412,7 @@
       </c>
     </row>
     <row r="247" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A247" s="6">
+      <c r="A247" s="5">
         <f t="shared" si="3"/>
         <v>42707</v>
       </c>
@@ -63655,7 +64511,7 @@
       </c>
     </row>
     <row r="248" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A248" s="6">
+      <c r="A248" s="5">
         <f t="shared" si="3"/>
         <v>42708</v>
       </c>
@@ -63754,7 +64610,7 @@
       </c>
     </row>
     <row r="249" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A249" s="6">
+      <c r="A249" s="5">
         <f t="shared" si="3"/>
         <v>42709</v>
       </c>
@@ -63853,7 +64709,7 @@
       </c>
     </row>
     <row r="250" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A250" s="6">
+      <c r="A250" s="5">
         <f t="shared" si="3"/>
         <v>42710</v>
       </c>
@@ -63952,7 +64808,7 @@
       </c>
     </row>
     <row r="251" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A251" s="6">
+      <c r="A251" s="5">
         <f t="shared" si="3"/>
         <v>42711</v>
       </c>
@@ -64051,7 +64907,7 @@
       </c>
     </row>
     <row r="252" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A252" s="6">
+      <c r="A252" s="5">
         <f t="shared" si="3"/>
         <v>42712</v>
       </c>
@@ -64150,7 +65006,7 @@
       </c>
     </row>
     <row r="253" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A253" s="6">
+      <c r="A253" s="5">
         <f t="shared" si="3"/>
         <v>42713</v>
       </c>
@@ -64249,7 +65105,7 @@
       </c>
     </row>
     <row r="254" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A254" s="6">
+      <c r="A254" s="5">
         <f t="shared" si="3"/>
         <v>42714</v>
       </c>
@@ -64348,7 +65204,7 @@
       </c>
     </row>
     <row r="255" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A255" s="6">
+      <c r="A255" s="5">
         <f t="shared" si="3"/>
         <v>42715</v>
       </c>
@@ -64447,7 +65303,7 @@
       </c>
     </row>
     <row r="256" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A256" s="6">
+      <c r="A256" s="5">
         <f t="shared" si="3"/>
         <v>42716</v>
       </c>
@@ -64546,7 +65402,7 @@
       </c>
     </row>
     <row r="257" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A257" s="6">
+      <c r="A257" s="5">
         <f t="shared" si="3"/>
         <v>42717</v>
       </c>
@@ -64645,7 +65501,7 @@
       </c>
     </row>
     <row r="258" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A258" s="6">
+      <c r="A258" s="5">
         <f t="shared" si="3"/>
         <v>42718</v>
       </c>
@@ -64744,7 +65600,7 @@
       </c>
     </row>
     <row r="259" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A259" s="6">
+      <c r="A259" s="5">
         <f t="shared" ref="A259:A322" si="4">DATE(YEAR(B259)-(3915-2015),MONTH(B259),DAY(B259))</f>
         <v>42719</v>
       </c>
@@ -64843,7 +65699,7 @@
       </c>
     </row>
     <row r="260" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A260" s="6">
+      <c r="A260" s="5">
         <f t="shared" si="4"/>
         <v>42720</v>
       </c>
@@ -64942,7 +65798,7 @@
       </c>
     </row>
     <row r="261" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A261" s="6">
+      <c r="A261" s="5">
         <f t="shared" si="4"/>
         <v>42721</v>
       </c>
@@ -65041,7 +65897,7 @@
       </c>
     </row>
     <row r="262" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A262" s="6">
+      <c r="A262" s="5">
         <f t="shared" si="4"/>
         <v>42722</v>
       </c>
@@ -65140,7 +65996,7 @@
       </c>
     </row>
     <row r="263" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A263" s="6">
+      <c r="A263" s="5">
         <f t="shared" si="4"/>
         <v>42723</v>
       </c>
@@ -65239,7 +66095,7 @@
       </c>
     </row>
     <row r="264" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A264" s="6">
+      <c r="A264" s="5">
         <f t="shared" si="4"/>
         <v>42724</v>
       </c>
@@ -65338,7 +66194,7 @@
       </c>
     </row>
     <row r="265" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A265" s="6">
+      <c r="A265" s="5">
         <f t="shared" si="4"/>
         <v>42725</v>
       </c>
@@ -65437,7 +66293,7 @@
       </c>
     </row>
     <row r="266" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A266" s="6">
+      <c r="A266" s="5">
         <f t="shared" si="4"/>
         <v>42726</v>
       </c>
@@ -65536,7 +66392,7 @@
       </c>
     </row>
     <row r="267" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A267" s="6">
+      <c r="A267" s="5">
         <f t="shared" si="4"/>
         <v>42727</v>
       </c>
@@ -65635,7 +66491,7 @@
       </c>
     </row>
     <row r="268" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A268" s="6">
+      <c r="A268" s="5">
         <f t="shared" si="4"/>
         <v>42728</v>
       </c>
@@ -65734,7 +66590,7 @@
       </c>
     </row>
     <row r="269" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A269" s="6">
+      <c r="A269" s="5">
         <f t="shared" si="4"/>
         <v>42732</v>
       </c>
@@ -65833,7 +66689,7 @@
       </c>
     </row>
     <row r="270" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A270" s="6">
+      <c r="A270" s="5">
         <f t="shared" si="4"/>
         <v>42733</v>
       </c>
@@ -65932,7 +66788,7 @@
       </c>
     </row>
     <row r="271" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A271" s="6">
+      <c r="A271" s="5">
         <f t="shared" si="4"/>
         <v>42734</v>
       </c>
@@ -66031,7 +66887,7 @@
       </c>
     </row>
     <row r="272" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A272" s="6">
+      <c r="A272" s="5">
         <f t="shared" si="4"/>
         <v>42735</v>
       </c>
@@ -66130,7 +66986,7 @@
       </c>
     </row>
     <row r="273" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A273" s="6">
+      <c r="A273" s="5">
         <f t="shared" si="4"/>
         <v>42736</v>
       </c>
@@ -66229,7 +67085,7 @@
       </c>
     </row>
     <row r="274" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A274" s="6">
+      <c r="A274" s="5">
         <f t="shared" si="4"/>
         <v>42737</v>
       </c>
@@ -66328,7 +67184,7 @@
       </c>
     </row>
     <row r="275" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A275" s="6">
+      <c r="A275" s="5">
         <f t="shared" si="4"/>
         <v>42738</v>
       </c>
@@ -66427,7 +67283,7 @@
       </c>
     </row>
     <row r="276" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A276" s="6">
+      <c r="A276" s="5">
         <f t="shared" si="4"/>
         <v>42739</v>
       </c>
@@ -66526,7 +67382,7 @@
       </c>
     </row>
     <row r="277" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A277" s="6">
+      <c r="A277" s="5">
         <f t="shared" si="4"/>
         <v>42740</v>
       </c>
@@ -66625,7 +67481,7 @@
       </c>
     </row>
     <row r="278" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A278" s="6">
+      <c r="A278" s="5">
         <f t="shared" si="4"/>
         <v>42741</v>
       </c>
@@ -66724,7 +67580,7 @@
       </c>
     </row>
     <row r="279" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A279" s="6">
+      <c r="A279" s="5">
         <f t="shared" si="4"/>
         <v>42742</v>
       </c>
@@ -66823,7 +67679,7 @@
       </c>
     </row>
     <row r="280" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A280" s="6">
+      <c r="A280" s="5">
         <f t="shared" si="4"/>
         <v>42743</v>
       </c>
@@ -66922,7 +67778,7 @@
       </c>
     </row>
     <row r="281" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A281" s="6">
+      <c r="A281" s="5">
         <f t="shared" si="4"/>
         <v>42744</v>
       </c>
@@ -67021,7 +67877,7 @@
       </c>
     </row>
     <row r="282" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A282" s="6">
+      <c r="A282" s="5">
         <f t="shared" si="4"/>
         <v>42745</v>
       </c>
@@ -67120,7 +67976,7 @@
       </c>
     </row>
     <row r="283" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A283" s="6">
+      <c r="A283" s="5">
         <f t="shared" si="4"/>
         <v>42746</v>
       </c>
@@ -67219,7 +68075,7 @@
       </c>
     </row>
     <row r="284" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A284" s="6">
+      <c r="A284" s="5">
         <f t="shared" si="4"/>
         <v>42747</v>
       </c>
@@ -67318,7 +68174,7 @@
       </c>
     </row>
     <row r="285" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A285" s="6">
+      <c r="A285" s="5">
         <f t="shared" si="4"/>
         <v>42748</v>
       </c>
@@ -67417,7 +68273,7 @@
       </c>
     </row>
     <row r="286" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A286" s="6">
+      <c r="A286" s="5">
         <f t="shared" si="4"/>
         <v>42749</v>
       </c>
@@ -67516,7 +68372,7 @@
       </c>
     </row>
     <row r="287" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A287" s="6">
+      <c r="A287" s="5">
         <f t="shared" si="4"/>
         <v>42750</v>
       </c>
@@ -67615,7 +68471,7 @@
       </c>
     </row>
     <row r="288" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A288" s="6">
+      <c r="A288" s="5">
         <f t="shared" si="4"/>
         <v>42751</v>
       </c>
@@ -67714,7 +68570,7 @@
       </c>
     </row>
     <row r="289" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A289" s="6">
+      <c r="A289" s="5">
         <f t="shared" si="4"/>
         <v>42752</v>
       </c>
@@ -67813,7 +68669,7 @@
       </c>
     </row>
     <row r="290" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A290" s="6">
+      <c r="A290" s="5">
         <f t="shared" si="4"/>
         <v>42753</v>
       </c>
@@ -67912,7 +68768,7 @@
       </c>
     </row>
     <row r="291" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A291" s="6">
+      <c r="A291" s="5">
         <f t="shared" si="4"/>
         <v>42754</v>
       </c>
@@ -68011,7 +68867,7 @@
       </c>
     </row>
     <row r="292" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A292" s="6">
+      <c r="A292" s="5">
         <f t="shared" si="4"/>
         <v>42755</v>
       </c>
@@ -68110,7 +68966,7 @@
       </c>
     </row>
     <row r="293" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A293" s="6">
+      <c r="A293" s="5">
         <f t="shared" si="4"/>
         <v>42756</v>
       </c>
@@ -68209,7 +69065,7 @@
       </c>
     </row>
     <row r="294" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A294" s="6">
+      <c r="A294" s="5">
         <f t="shared" si="4"/>
         <v>42757</v>
       </c>
@@ -68308,7 +69164,7 @@
       </c>
     </row>
     <row r="295" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A295" s="6">
+      <c r="A295" s="5">
         <f t="shared" si="4"/>
         <v>42758</v>
       </c>
@@ -68407,7 +69263,7 @@
       </c>
     </row>
     <row r="296" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A296" s="6">
+      <c r="A296" s="5">
         <f t="shared" si="4"/>
         <v>42759</v>
       </c>
@@ -68506,7 +69362,7 @@
       </c>
     </row>
     <row r="297" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A297" s="6">
+      <c r="A297" s="5">
         <f t="shared" si="4"/>
         <v>42760</v>
       </c>
@@ -68605,7 +69461,7 @@
       </c>
     </row>
     <row r="298" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A298" s="6">
+      <c r="A298" s="5">
         <f t="shared" si="4"/>
         <v>42761</v>
       </c>
@@ -68704,7 +69560,7 @@
       </c>
     </row>
     <row r="299" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A299" s="6">
+      <c r="A299" s="5">
         <f t="shared" si="4"/>
         <v>42762</v>
       </c>
@@ -68803,7 +69659,7 @@
       </c>
     </row>
     <row r="300" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A300" s="6">
+      <c r="A300" s="5">
         <f t="shared" si="4"/>
         <v>42767</v>
       </c>
@@ -68902,7 +69758,7 @@
       </c>
     </row>
     <row r="301" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A301" s="6">
+      <c r="A301" s="5">
         <f t="shared" si="4"/>
         <v>42768</v>
       </c>
@@ -69001,7 +69857,7 @@
       </c>
     </row>
     <row r="302" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A302" s="6">
+      <c r="A302" s="5">
         <f t="shared" si="4"/>
         <v>42769</v>
       </c>
@@ -69100,7 +69956,7 @@
       </c>
     </row>
     <row r="303" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A303" s="6">
+      <c r="A303" s="5">
         <f t="shared" si="4"/>
         <v>42770</v>
       </c>
@@ -69199,7 +70055,7 @@
       </c>
     </row>
     <row r="304" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A304" s="6">
+      <c r="A304" s="5">
         <f t="shared" si="4"/>
         <v>42771</v>
       </c>
@@ -69298,7 +70154,7 @@
       </c>
     </row>
     <row r="305" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A305" s="6">
+      <c r="A305" s="5">
         <f t="shared" si="4"/>
         <v>42773</v>
       </c>
@@ -69397,7 +70253,7 @@
       </c>
     </row>
     <row r="306" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A306" s="6">
+      <c r="A306" s="5">
         <f t="shared" si="4"/>
         <v>42774</v>
       </c>
@@ -69496,7 +70352,7 @@
       </c>
     </row>
     <row r="307" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A307" s="6">
+      <c r="A307" s="5">
         <f t="shared" si="4"/>
         <v>42775</v>
       </c>
@@ -69595,7 +70451,7 @@
       </c>
     </row>
     <row r="308" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A308" s="6">
+      <c r="A308" s="5">
         <f t="shared" si="4"/>
         <v>42776</v>
       </c>
@@ -69694,7 +70550,7 @@
       </c>
     </row>
     <row r="309" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A309" s="6">
+      <c r="A309" s="5">
         <f t="shared" si="4"/>
         <v>42777</v>
       </c>
@@ -69793,7 +70649,7 @@
       </c>
     </row>
     <row r="310" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A310" s="6">
+      <c r="A310" s="5">
         <f t="shared" si="4"/>
         <v>42778</v>
       </c>
@@ -69892,7 +70748,7 @@
       </c>
     </row>
     <row r="311" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A311" s="6">
+      <c r="A311" s="5">
         <f t="shared" si="4"/>
         <v>42779</v>
       </c>
@@ -69991,7 +70847,7 @@
       </c>
     </row>
     <row r="312" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A312" s="6">
+      <c r="A312" s="5">
         <f t="shared" si="4"/>
         <v>42780</v>
       </c>
@@ -70090,7 +70946,7 @@
       </c>
     </row>
     <row r="313" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A313" s="6">
+      <c r="A313" s="5">
         <f t="shared" si="4"/>
         <v>42781</v>
       </c>
@@ -70189,7 +71045,7 @@
       </c>
     </row>
     <row r="314" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A314" s="6">
+      <c r="A314" s="5">
         <f t="shared" si="4"/>
         <v>42782</v>
       </c>
@@ -70288,7 +71144,7 @@
       </c>
     </row>
     <row r="315" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A315" s="6">
+      <c r="A315" s="5">
         <f t="shared" si="4"/>
         <v>42783</v>
       </c>
@@ -70387,7 +71243,7 @@
       </c>
     </row>
     <row r="316" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A316" s="6">
+      <c r="A316" s="5">
         <f t="shared" si="4"/>
         <v>42784</v>
       </c>
@@ -70486,7 +71342,7 @@
       </c>
     </row>
     <row r="317" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A317" s="6">
+      <c r="A317" s="5">
         <f t="shared" si="4"/>
         <v>42785</v>
       </c>
@@ -70585,7 +71441,7 @@
       </c>
     </row>
     <row r="318" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A318" s="6">
+      <c r="A318" s="5">
         <f t="shared" si="4"/>
         <v>42786</v>
       </c>
@@ -70684,7 +71540,7 @@
       </c>
     </row>
     <row r="319" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A319" s="6">
+      <c r="A319" s="5">
         <f t="shared" si="4"/>
         <v>42787</v>
       </c>
@@ -70783,7 +71639,7 @@
       </c>
     </row>
     <row r="320" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A320" s="6">
+      <c r="A320" s="5">
         <f t="shared" si="4"/>
         <v>42788</v>
       </c>
@@ -70882,7 +71738,7 @@
       </c>
     </row>
     <row r="321" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A321" s="6">
+      <c r="A321" s="5">
         <f t="shared" si="4"/>
         <v>42789</v>
       </c>
@@ -70981,7 +71837,7 @@
       </c>
     </row>
     <row r="322" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A322" s="6">
+      <c r="A322" s="5">
         <f t="shared" si="4"/>
         <v>42790</v>
       </c>
@@ -71080,7 +71936,7 @@
       </c>
     </row>
     <row r="323" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A323" s="6">
+      <c r="A323" s="5">
         <f t="shared" ref="A323:A367" si="5">DATE(YEAR(B323)-(3915-2015),MONTH(B323),DAY(B323))</f>
         <v>42791</v>
       </c>
@@ -71179,7 +72035,7 @@
       </c>
     </row>
     <row r="324" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A324" s="6">
+      <c r="A324" s="5">
         <f t="shared" si="5"/>
         <v>42792</v>
       </c>
@@ -71278,7 +72134,7 @@
       </c>
     </row>
     <row r="325" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A325" s="6">
+      <c r="A325" s="5">
         <f t="shared" si="5"/>
         <v>42793</v>
       </c>
@@ -71377,7 +72233,7 @@
       </c>
     </row>
     <row r="326" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A326" s="6">
+      <c r="A326" s="5">
         <f t="shared" si="5"/>
         <v>42794</v>
       </c>
@@ -71476,7 +72332,7 @@
       </c>
     </row>
     <row r="327" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A327" s="6">
+      <c r="A327" s="5">
         <f t="shared" si="5"/>
         <v>42795</v>
       </c>
@@ -71575,7 +72431,7 @@
       </c>
     </row>
     <row r="328" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A328" s="6">
+      <c r="A328" s="5">
         <f t="shared" si="5"/>
         <v>42796</v>
       </c>
@@ -71674,7 +72530,7 @@
       </c>
     </row>
     <row r="329" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A329" s="6">
+      <c r="A329" s="5">
         <f t="shared" si="5"/>
         <v>42797</v>
       </c>
@@ -71773,7 +72629,7 @@
       </c>
     </row>
     <row r="330" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A330" s="6">
+      <c r="A330" s="5">
         <f t="shared" si="5"/>
         <v>42798</v>
       </c>
@@ -71872,7 +72728,7 @@
       </c>
     </row>
     <row r="331" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A331" s="6">
+      <c r="A331" s="5">
         <f t="shared" si="5"/>
         <v>42799</v>
       </c>
@@ -71971,7 +72827,7 @@
       </c>
     </row>
     <row r="332" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A332" s="6">
+      <c r="A332" s="5">
         <f t="shared" si="5"/>
         <v>42800</v>
       </c>
@@ -72070,7 +72926,7 @@
       </c>
     </row>
     <row r="333" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A333" s="6">
+      <c r="A333" s="5">
         <f t="shared" si="5"/>
         <v>42801</v>
       </c>
@@ -72169,7 +73025,7 @@
       </c>
     </row>
     <row r="334" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A334" s="6">
+      <c r="A334" s="5">
         <f t="shared" si="5"/>
         <v>42802</v>
       </c>
@@ -72268,7 +73124,7 @@
       </c>
     </row>
     <row r="335" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A335" s="6">
+      <c r="A335" s="5">
         <f t="shared" si="5"/>
         <v>42803</v>
       </c>
@@ -72367,7 +73223,7 @@
       </c>
     </row>
     <row r="336" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A336" s="6">
+      <c r="A336" s="5">
         <f t="shared" si="5"/>
         <v>42804</v>
       </c>
@@ -72466,7 +73322,7 @@
       </c>
     </row>
     <row r="337" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A337" s="6">
+      <c r="A337" s="5">
         <f t="shared" si="5"/>
         <v>42805</v>
       </c>
@@ -72565,7 +73421,7 @@
       </c>
     </row>
     <row r="338" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A338" s="6">
+      <c r="A338" s="5">
         <f t="shared" si="5"/>
         <v>42806</v>
       </c>
@@ -72664,7 +73520,7 @@
       </c>
     </row>
     <row r="339" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A339" s="6">
+      <c r="A339" s="5">
         <f t="shared" si="5"/>
         <v>42807</v>
       </c>
@@ -72763,7 +73619,7 @@
       </c>
     </row>
     <row r="340" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A340" s="6">
+      <c r="A340" s="5">
         <f t="shared" si="5"/>
         <v>42808</v>
       </c>
@@ -72862,7 +73718,7 @@
       </c>
     </row>
     <row r="341" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A341" s="6">
+      <c r="A341" s="5">
         <f t="shared" si="5"/>
         <v>42809</v>
       </c>
@@ -72961,7 +73817,7 @@
       </c>
     </row>
     <row r="342" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A342" s="6">
+      <c r="A342" s="5">
         <f t="shared" si="5"/>
         <v>42810</v>
       </c>
@@ -73060,7 +73916,7 @@
       </c>
     </row>
     <row r="343" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A343" s="6">
+      <c r="A343" s="5">
         <f t="shared" si="5"/>
         <v>42811</v>
       </c>
@@ -73159,7 +74015,7 @@
       </c>
     </row>
     <row r="344" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A344" s="6">
+      <c r="A344" s="5">
         <f t="shared" si="5"/>
         <v>42812</v>
       </c>
@@ -73258,7 +74114,7 @@
       </c>
     </row>
     <row r="345" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A345" s="6">
+      <c r="A345" s="5">
         <f t="shared" si="5"/>
         <v>42813</v>
       </c>
@@ -73357,7 +74213,7 @@
       </c>
     </row>
     <row r="346" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A346" s="6">
+      <c r="A346" s="5">
         <f t="shared" si="5"/>
         <v>42814</v>
       </c>
@@ -73456,7 +74312,7 @@
       </c>
     </row>
     <row r="347" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A347" s="6">
+      <c r="A347" s="5">
         <f t="shared" si="5"/>
         <v>42815</v>
       </c>
@@ -73555,7 +74411,7 @@
       </c>
     </row>
     <row r="348" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A348" s="6">
+      <c r="A348" s="5">
         <f t="shared" si="5"/>
         <v>42816</v>
       </c>
@@ -73654,7 +74510,7 @@
       </c>
     </row>
     <row r="349" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A349" s="6">
+      <c r="A349" s="5">
         <f t="shared" si="5"/>
         <v>42817</v>
       </c>
@@ -73753,7 +74609,7 @@
       </c>
     </row>
     <row r="350" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A350" s="6">
+      <c r="A350" s="5">
         <f t="shared" si="5"/>
         <v>42818</v>
       </c>
@@ -73852,7 +74708,7 @@
       </c>
     </row>
     <row r="351" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A351" s="6">
+      <c r="A351" s="5">
         <f t="shared" si="5"/>
         <v>42819</v>
       </c>
@@ -73951,7 +74807,7 @@
       </c>
     </row>
     <row r="352" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A352" s="6">
+      <c r="A352" s="5">
         <f t="shared" si="5"/>
         <v>42820</v>
       </c>
@@ -74050,7 +74906,7 @@
       </c>
     </row>
     <row r="353" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A353" s="6">
+      <c r="A353" s="5">
         <f t="shared" si="5"/>
         <v>42821</v>
       </c>
@@ -74149,7 +75005,7 @@
       </c>
     </row>
     <row r="354" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A354" s="6">
+      <c r="A354" s="5">
         <f t="shared" si="5"/>
         <v>42822</v>
       </c>
@@ -74248,7 +75104,7 @@
       </c>
     </row>
     <row r="355" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A355" s="6">
+      <c r="A355" s="5">
         <f t="shared" si="5"/>
         <v>42823</v>
       </c>
@@ -74347,7 +75203,7 @@
       </c>
     </row>
     <row r="356" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A356" s="6">
+      <c r="A356" s="5">
         <f t="shared" si="5"/>
         <v>42824</v>
       </c>
@@ -74446,7 +75302,7 @@
       </c>
     </row>
     <row r="357" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A357" s="6">
+      <c r="A357" s="5">
         <f t="shared" si="5"/>
         <v>42825</v>
       </c>
@@ -74545,7 +75401,7 @@
       </c>
     </row>
     <row r="358" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A358" s="6">
+      <c r="A358" s="5">
         <f t="shared" si="5"/>
         <v>42826</v>
       </c>
@@ -74644,7 +75500,7 @@
       </c>
     </row>
     <row r="359" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A359" s="6">
+      <c r="A359" s="5">
         <f t="shared" si="5"/>
         <v>42827</v>
       </c>
@@ -74743,7 +75599,7 @@
       </c>
     </row>
     <row r="360" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A360" s="6">
+      <c r="A360" s="5">
         <f t="shared" si="5"/>
         <v>42828</v>
       </c>
@@ -74842,7 +75698,7 @@
       </c>
     </row>
     <row r="361" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A361" s="6">
+      <c r="A361" s="5">
         <f t="shared" si="5"/>
         <v>42829</v>
       </c>
@@ -74941,7 +75797,7 @@
       </c>
     </row>
     <row r="362" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A362" s="6">
+      <c r="A362" s="5">
         <f t="shared" si="5"/>
         <v>42830</v>
       </c>
@@ -75040,7 +75896,7 @@
       </c>
     </row>
     <row r="363" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A363" s="6">
+      <c r="A363" s="5">
         <f t="shared" si="5"/>
         <v>42831</v>
       </c>
@@ -75139,7 +75995,7 @@
       </c>
     </row>
     <row r="364" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A364" s="6">
+      <c r="A364" s="5">
         <f t="shared" si="5"/>
         <v>42832</v>
       </c>
@@ -75238,7 +76094,7 @@
       </c>
     </row>
     <row r="365" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A365" s="6">
+      <c r="A365" s="5">
         <f t="shared" si="5"/>
         <v>42833</v>
       </c>
@@ -75337,7 +76193,7 @@
       </c>
     </row>
     <row r="366" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A366" s="6">
+      <c r="A366" s="5">
         <f t="shared" si="5"/>
         <v>42834</v>
       </c>
@@ -75436,7 +76292,7 @@
       </c>
     </row>
     <row r="367" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A367" s="6">
+      <c r="A367" s="5">
         <f t="shared" si="5"/>
         <v>42835</v>
       </c>

--- a/projects/nhl-projections/files/data/projection_output.xlsx
+++ b/projects/nhl-projections/files/data/projection_output.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="14440" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="14440" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="3" r:id="rId1"/>
@@ -156,7 +156,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -214,7 +214,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,7 +528,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="4">
-        <v>42655</v>
+        <v>42662</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -776,8 +776,8 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -807,17 +807,17 @@
         <f>variables!B2</f>
         <v>ANA</v>
       </c>
-      <c r="B2" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A2,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A2,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B2" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A2,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A2,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>4.32</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>IFERROR(ABS(C2-B2),"-")</f>
-        <v>-</v>
+        <f>IFERROR(IF(C2&gt;B2,"+","-")&amp;ROUND(ABS(C2-B2),2),"-")</f>
+        <v>+3.32</v>
       </c>
       <c r="E2" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!$B:$B)-1,MATCH(output!$A2,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -833,17 +833,17 @@
         <f>variables!B3</f>
         <v>ARI</v>
       </c>
-      <c r="B3" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A3,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A3,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B3" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A3,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A3,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>1.67</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f t="shared" ref="D3:D31" si="0">IFERROR(ABS(C3-B3),"-")</f>
-        <v>-</v>
+        <f t="shared" ref="D3:D7" si="0">IFERROR(IF(C3&gt;B3,"+","-")&amp;ROUND(ABS(C3-B3),2),"-")</f>
+        <v>-0.33</v>
       </c>
       <c r="E3" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A3,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -859,17 +859,17 @@
         <f>variables!B4</f>
         <v>BOS</v>
       </c>
-      <c r="B4" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A4,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A4,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B4" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A4,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A4,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>3.78</v>
       </c>
       <c r="D4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>-</v>
+        <v>-0.22</v>
       </c>
       <c r="E4" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A4,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -885,17 +885,17 @@
         <f>variables!B5</f>
         <v>BUF</v>
       </c>
-      <c r="B5" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A5,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C5" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A5,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B5" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A5,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A5,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>3.41</v>
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>-</v>
+        <v>+0.41</v>
       </c>
       <c r="E5" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A5,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -911,17 +911,17 @@
         <f>variables!B6</f>
         <v>CGY</v>
       </c>
-      <c r="B6" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A6,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A6,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B6" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A6,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A6,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>4.58</v>
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>-</v>
+        <v>+1.58</v>
       </c>
       <c r="E6" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A6,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -937,17 +937,17 @@
         <f>variables!B7</f>
         <v>CAR</v>
       </c>
-      <c r="B7" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A7,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C7" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A7,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B7" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A7,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A7,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>2.92</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>-</v>
+        <v>+0.92</v>
       </c>
       <c r="E7" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A7,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -963,17 +963,17 @@
         <f>variables!B8</f>
         <v>CHI</v>
       </c>
-      <c r="B8" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A8,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C8" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A8,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B8" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A8,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A8,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>4.12</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" ref="D8:D31" si="1">IFERROR(IF(C8&gt;B8,"+","-")&amp;ROUND(ABS(C8-B8),2),"-")</f>
+        <v>+0.12</v>
       </c>
       <c r="E8" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A8,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -989,17 +989,17 @@
         <f>variables!B9</f>
         <v>COL</v>
       </c>
-      <c r="B9" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A9,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C9" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A9,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B9" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A9,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A9,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>3.18</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>-0.82</v>
       </c>
       <c r="E9" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A9,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1015,17 +1015,17 @@
         <f>variables!B10</f>
         <v>CBJ</v>
       </c>
-      <c r="B10" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A10,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C10" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A10,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B10" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A10,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A10,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>1.71</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>+1.71</v>
       </c>
       <c r="E10" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A10,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1041,17 +1041,17 @@
         <f>variables!B11</f>
         <v>DAL</v>
       </c>
-      <c r="B11" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A11,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C11" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A11,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B11" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A11,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A11,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>3.35</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>-0.65</v>
       </c>
       <c r="E11" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A11,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1067,17 +1067,17 @@
         <f>variables!B12</f>
         <v>DET</v>
       </c>
-      <c r="B12" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A12,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C12" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A12,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B12" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A12,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A12,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>2.96</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>-1.04</v>
       </c>
       <c r="E12" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A12,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1093,17 +1093,17 @@
         <f>variables!B13</f>
         <v>EDM</v>
       </c>
-      <c r="B13" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A13,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C13" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A13,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B13" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A13,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>6</v>
+      </c>
+      <c r="C13" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A13,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>3.98</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>-2.02</v>
       </c>
       <c r="E13" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A13,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1119,17 +1119,17 @@
         <f>variables!B14</f>
         <v>FLA</v>
       </c>
-      <c r="B14" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A14,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C14" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A14,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B14" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A14,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A14,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>3.21</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>-1.79</v>
       </c>
       <c r="E14" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A14,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1145,17 +1145,17 @@
         <f>variables!B15</f>
         <v>LAK</v>
       </c>
-      <c r="B15" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A15,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C15" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A15,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B15" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A15,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A15,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>2.96</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>+2.96</v>
       </c>
       <c r="E15" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A15,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1171,17 +1171,17 @@
         <f>variables!B16</f>
         <v>MIN</v>
       </c>
-      <c r="B16" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A16,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C16" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A16,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B16" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A16,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>4</v>
+      </c>
+      <c r="C16" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A16,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>3.06</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>-0.94</v>
       </c>
       <c r="E16" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A16,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1197,17 +1197,17 @@
         <f>variables!B17</f>
         <v>MTL</v>
       </c>
-      <c r="B17" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A17,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C17" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A17,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B17" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A17,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>5</v>
+      </c>
+      <c r="C17" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A17,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>3.13</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>-1.87</v>
       </c>
       <c r="E17" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A17,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1223,17 +1223,17 @@
         <f>variables!B18</f>
         <v>NSH</v>
       </c>
-      <c r="B18" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A18,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C18" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A18,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B18" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A18,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A18,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>2.94</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>+0.94</v>
       </c>
       <c r="E18" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A18,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1249,17 +1249,17 @@
         <f>variables!B19</f>
         <v>NJD</v>
       </c>
-      <c r="B19" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A19,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C19" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A19,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B19" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A19,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>3</v>
+      </c>
+      <c r="C19" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A19,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>2.8</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>-0.2</v>
       </c>
       <c r="E19" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A19,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1275,17 +1275,17 @@
         <f>variables!B20</f>
         <v>NYI</v>
       </c>
-      <c r="B20" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A20,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C20" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A20,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B20" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A20,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A20,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>3.92</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>+1.92</v>
       </c>
       <c r="E20" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A20,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1301,17 +1301,17 @@
         <f>variables!B21</f>
         <v>NYR</v>
       </c>
-      <c r="B21" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A21,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C21" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A21,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B21" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A21,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A21,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>3.43</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>-0.57</v>
       </c>
       <c r="E21" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A21,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1327,17 +1327,17 @@
         <f>variables!B22</f>
         <v>OTT</v>
       </c>
-      <c r="B22" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A22,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C22" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A22,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B22" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A22,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>6</v>
+      </c>
+      <c r="C22" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A22,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>4.37</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>-1.63</v>
       </c>
       <c r="E22" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A22,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1353,17 +1353,17 @@
         <f>variables!B23</f>
         <v>PHI</v>
       </c>
-      <c r="B23" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A23,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C23" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A23,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B23" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A23,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>3</v>
+      </c>
+      <c r="C23" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A23,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>3.66</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>+0.66</v>
       </c>
       <c r="E23" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A23,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1379,17 +1379,17 @@
         <f>variables!B24</f>
         <v>PIT</v>
       </c>
-      <c r="B24" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A24,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C24" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A24,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B24" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A24,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>5</v>
+      </c>
+      <c r="C24" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A24,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>4.68</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>-0.32</v>
       </c>
       <c r="E24" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A24,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1405,17 +1405,17 @@
         <f>variables!B25</f>
         <v>SJS</v>
       </c>
-      <c r="B25" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A25,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C25" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A25,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B25" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A25,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>6</v>
+      </c>
+      <c r="C25" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A25,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>-1.6</v>
       </c>
       <c r="E25" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A25,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1431,17 +1431,17 @@
         <f>variables!B26</f>
         <v>STL</v>
       </c>
-      <c r="B26" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A26,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C26" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A26,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B26" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A26,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>7</v>
+      </c>
+      <c r="C26" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A26,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>4.78</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>-2.22</v>
       </c>
       <c r="E26" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A26,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1457,17 +1457,17 @@
         <f>variables!B27</f>
         <v>TBL</v>
       </c>
-      <c r="B27" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A27,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C27" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A27,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B27" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A27,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>6</v>
+      </c>
+      <c r="C27" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A27,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>3.54</v>
       </c>
       <c r="D27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>-2.46</v>
       </c>
       <c r="E27" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A27,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1483,17 +1483,17 @@
         <f>variables!B28</f>
         <v>TOR</v>
       </c>
-      <c r="B28" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A28,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C28" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A28,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B28" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A28,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>4</v>
+      </c>
+      <c r="C28" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A28,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>1.89</v>
       </c>
       <c r="D28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>-2.11</v>
       </c>
       <c r="E28" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A28,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1509,17 +1509,17 @@
         <f>variables!B29</f>
         <v>VAN</v>
       </c>
-      <c r="B29" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A29,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C29" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A29,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B29" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A29,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>6</v>
+      </c>
+      <c r="C29" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A29,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>2.82</v>
       </c>
       <c r="D29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>-3.18</v>
       </c>
       <c r="E29" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A29,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1535,17 +1535,17 @@
         <f>variables!B30</f>
         <v>WSH</v>
       </c>
-      <c r="B30" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A30,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C30" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A30,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B30" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A30,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>5</v>
+      </c>
+      <c r="C30" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A30,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>3</v>
       </c>
       <c r="D30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>-2</v>
       </c>
       <c r="E30" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A30,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1561,17 +1561,17 @@
         <f>variables!B31</f>
         <v>WPG</v>
       </c>
-      <c r="B31" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A31,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C31" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A31,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B31" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A31,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>4</v>
+      </c>
+      <c r="C31" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A31,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>3.24</v>
       </c>
       <c r="D31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>-0.76</v>
       </c>
       <c r="E31" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A31,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1594,11 +1594,11 @@
   </sheetPr>
   <dimension ref="A1:AE367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B182" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B191" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE199" sqref="AE199"/>
+      <selection pane="bottomRight" activeCell="AF202" sqref="AF202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2795,6 +2795,96 @@
     <row r="202" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A202" s="6">
         <v>42662</v>
+      </c>
+      <c r="B202" s="1">
+        <v>1</v>
+      </c>
+      <c r="C202" s="1">
+        <v>2</v>
+      </c>
+      <c r="D202" s="1">
+        <v>4</v>
+      </c>
+      <c r="E202" s="1">
+        <v>3</v>
+      </c>
+      <c r="F202" s="1">
+        <v>3</v>
+      </c>
+      <c r="G202" s="1">
+        <v>2</v>
+      </c>
+      <c r="H202" s="1">
+        <v>4</v>
+      </c>
+      <c r="I202" s="1">
+        <v>4</v>
+      </c>
+      <c r="J202" s="1">
+        <v>0</v>
+      </c>
+      <c r="K202" s="1">
+        <v>4</v>
+      </c>
+      <c r="L202" s="1">
+        <v>4</v>
+      </c>
+      <c r="M202" s="1">
+        <v>6</v>
+      </c>
+      <c r="N202" s="1">
+        <v>5</v>
+      </c>
+      <c r="O202" s="1">
+        <v>0</v>
+      </c>
+      <c r="P202" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q202" s="1">
+        <v>5</v>
+      </c>
+      <c r="R202" s="1">
+        <v>2</v>
+      </c>
+      <c r="S202" s="1">
+        <v>3</v>
+      </c>
+      <c r="T202" s="1">
+        <v>2</v>
+      </c>
+      <c r="U202" s="1">
+        <v>4</v>
+      </c>
+      <c r="V202" s="1">
+        <v>6</v>
+      </c>
+      <c r="W202" s="1">
+        <v>3</v>
+      </c>
+      <c r="X202" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y202" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z202" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA202" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB202" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC202" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD202" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE202" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="203" spans="1:31" x14ac:dyDescent="0.2">

--- a/projects/nhl-projections/files/data/projection_output.xlsx
+++ b/projects/nhl-projections/files/data/projection_output.xlsx
@@ -528,7 +528,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="4">
-        <v>42662</v>
+        <v>42787</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -777,7 +777,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -809,15 +809,15 @@
       </c>
       <c r="B2" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A2,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A2,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>4.32</v>
+        <v>66.930000000000007</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>IFERROR(IF(C2&gt;B2,"+","-")&amp;ROUND(ABS(C2-B2),2),"-")</f>
-        <v>+3.32</v>
+        <v>+66.93</v>
       </c>
       <c r="E2" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!$B:$B)-1,MATCH(output!$A2,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -835,15 +835,15 @@
       </c>
       <c r="B3" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A3,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A3,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>1.67</v>
+        <v>60.28</v>
       </c>
       <c r="D3" s="1" t="str">
         <f t="shared" ref="D3:D7" si="0">IFERROR(IF(C3&gt;B3,"+","-")&amp;ROUND(ABS(C3-B3),2),"-")</f>
-        <v>-0.33</v>
+        <v>+60.28</v>
       </c>
       <c r="E3" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A3,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -861,15 +861,15 @@
       </c>
       <c r="B4" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A4,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A4,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>3.78</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="D4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>-0.22</v>
+        <v>+66.4</v>
       </c>
       <c r="E4" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A4,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -887,15 +887,15 @@
       </c>
       <c r="B5" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A5,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A5,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>3.41</v>
+        <v>58.42</v>
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>+0.41</v>
+        <v>+58.42</v>
       </c>
       <c r="E5" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A5,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -913,15 +913,15 @@
       </c>
       <c r="B6" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A6,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A6,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>4.58</v>
+        <v>62.04</v>
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>+1.58</v>
+        <v>+62.04</v>
       </c>
       <c r="E6" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A6,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -939,15 +939,15 @@
       </c>
       <c r="B7" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A7,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A7,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>2.92</v>
+        <v>52.22</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>+0.92</v>
+        <v>+52.22</v>
       </c>
       <c r="E7" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A7,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -965,15 +965,15 @@
       </c>
       <c r="B8" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A8,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A8,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>4.12</v>
+        <v>68.38</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" ref="D8:D31" si="1">IFERROR(IF(C8&gt;B8,"+","-")&amp;ROUND(ABS(C8-B8),2),"-")</f>
-        <v>+0.12</v>
+        <v>+68.38</v>
       </c>
       <c r="E8" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A8,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -991,15 +991,15 @@
       </c>
       <c r="B9" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A9,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A9,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>3.18</v>
+        <v>61.92</v>
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-0.82</v>
+        <v>+61.92</v>
       </c>
       <c r="E9" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A9,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1021,11 +1021,11 @@
       </c>
       <c r="C10" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A10,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>1.71</v>
+        <v>55.37</v>
       </c>
       <c r="D10" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>+1.71</v>
+        <v>+55.37</v>
       </c>
       <c r="E10" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A10,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1043,15 +1043,15 @@
       </c>
       <c r="B11" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A11,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A11,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>3.35</v>
+        <v>70.88</v>
       </c>
       <c r="D11" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-0.65</v>
+        <v>+70.88</v>
       </c>
       <c r="E11" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A11,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1069,15 +1069,15 @@
       </c>
       <c r="B12" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A12,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A12,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>2.96</v>
+        <v>63.02</v>
       </c>
       <c r="D12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-1.04</v>
+        <v>+63.02</v>
       </c>
       <c r="E12" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A12,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1095,15 +1095,15 @@
       </c>
       <c r="B13" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A13,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A13,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>3.98</v>
+        <v>57.41</v>
       </c>
       <c r="D13" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-2.02</v>
+        <v>+57.41</v>
       </c>
       <c r="E13" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A13,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1121,15 +1121,15 @@
       </c>
       <c r="B14" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A14,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A14,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>3.21</v>
+        <v>62.57</v>
       </c>
       <c r="D14" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-1.79</v>
+        <v>+62.57</v>
       </c>
       <c r="E14" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A14,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1151,11 +1151,11 @@
       </c>
       <c r="C15" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A15,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>2.96</v>
+        <v>61.34</v>
       </c>
       <c r="D15" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>+2.96</v>
+        <v>+61.34</v>
       </c>
       <c r="E15" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A15,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1173,15 +1173,15 @@
       </c>
       <c r="B16" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A16,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A16,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>3.06</v>
+        <v>61.76</v>
       </c>
       <c r="D16" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-0.94</v>
+        <v>+61.76</v>
       </c>
       <c r="E16" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A16,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1199,15 +1199,15 @@
       </c>
       <c r="B17" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A17,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A17,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>3.13</v>
+        <v>61.4</v>
       </c>
       <c r="D17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-1.87</v>
+        <v>+61.4</v>
       </c>
       <c r="E17" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A17,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1225,15 +1225,15 @@
       </c>
       <c r="B18" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A18,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C18" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A18,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>2.94</v>
+        <v>61.62</v>
       </c>
       <c r="D18" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>+0.94</v>
+        <v>+61.62</v>
       </c>
       <c r="E18" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A18,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1251,15 +1251,15 @@
       </c>
       <c r="B19" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A19,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C19" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A19,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>2.8</v>
+        <v>58.63</v>
       </c>
       <c r="D19" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-0.2</v>
+        <v>+58.63</v>
       </c>
       <c r="E19" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A19,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1277,15 +1277,15 @@
       </c>
       <c r="B20" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A20,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A20,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>3.92</v>
+        <v>60.89</v>
       </c>
       <c r="D20" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>+1.92</v>
+        <v>+60.89</v>
       </c>
       <c r="E20" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A20,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1303,15 +1303,15 @@
       </c>
       <c r="B21" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A21,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C21" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A21,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>3.43</v>
+        <v>66.7</v>
       </c>
       <c r="D21" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-0.57</v>
+        <v>+66.7</v>
       </c>
       <c r="E21" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A21,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1329,15 +1329,15 @@
       </c>
       <c r="B22" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A22,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C22" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A22,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>4.37</v>
+        <v>63.81</v>
       </c>
       <c r="D22" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-1.63</v>
+        <v>+63.81</v>
       </c>
       <c r="E22" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A22,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1355,15 +1355,15 @@
       </c>
       <c r="B23" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A23,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C23" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A23,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>3.66</v>
+        <v>63.61</v>
       </c>
       <c r="D23" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>+0.66</v>
+        <v>+63.61</v>
       </c>
       <c r="E23" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A23,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1381,15 +1381,15 @@
       </c>
       <c r="B24" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A24,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C24" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A24,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>4.68</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="D24" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-0.32</v>
+        <v>+67.4</v>
       </c>
       <c r="E24" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A24,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1407,15 +1407,15 @@
       </c>
       <c r="B25" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A25,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C25" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A25,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>4.4000000000000004</v>
+        <v>68.150000000000006</v>
       </c>
       <c r="D25" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-1.6</v>
+        <v>+68.15</v>
       </c>
       <c r="E25" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A25,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1433,15 +1433,15 @@
       </c>
       <c r="B26" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A26,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C26" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A26,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>4.78</v>
+        <v>67.459999999999994</v>
       </c>
       <c r="D26" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-2.22</v>
+        <v>+67.46</v>
       </c>
       <c r="E26" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A26,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1459,15 +1459,15 @@
       </c>
       <c r="B27" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A27,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C27" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A27,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>3.54</v>
+        <v>65.959999999999994</v>
       </c>
       <c r="D27" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-2.46</v>
+        <v>+65.96</v>
       </c>
       <c r="E27" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A27,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1485,15 +1485,15 @@
       </c>
       <c r="B28" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A28,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C28" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A28,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>1.89</v>
+        <v>57.78</v>
       </c>
       <c r="D28" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-2.11</v>
+        <v>+57.78</v>
       </c>
       <c r="E28" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A28,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1511,15 +1511,15 @@
       </c>
       <c r="B29" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A29,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C29" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A29,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>2.82</v>
+        <v>55.37</v>
       </c>
       <c r="D29" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-3.18</v>
+        <v>+55.37</v>
       </c>
       <c r="E29" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A29,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1537,15 +1537,15 @@
       </c>
       <c r="B30" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A30,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C30" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A30,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>3</v>
+        <v>63.4</v>
       </c>
       <c r="D30" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-2</v>
+        <v>+63.4</v>
       </c>
       <c r="E30" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A30,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1563,15 +1563,15 @@
       </c>
       <c r="B31" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A31,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C31" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A31,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>3.24</v>
+        <v>62.66</v>
       </c>
       <c r="D31" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-0.76</v>
+        <v>+62.66</v>
       </c>
       <c r="E31" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A31,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1595,7 +1595,7 @@
   <dimension ref="A1:AE367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B191" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B343" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="AF202" sqref="AF202"/>
